--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="102">
   <si>
     <t>Fecha</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>11/6/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:00:00 PM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -674,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -744,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -776,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -808,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -840,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -872,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -904,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -936,7 +939,7 @@
         <v>0.03</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -968,7 +971,7 @@
         <v>14.51</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1000,7 +1003,7 @@
         <v>61.99</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1032,7 +1035,7 @@
         <v>113.02</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1064,7 +1067,7 @@
         <v>164.98</v>
       </c>
       <c r="L12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1096,7 +1099,7 @@
         <v>267.14</v>
       </c>
       <c r="L13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1128,7 +1131,7 @@
         <v>403.48</v>
       </c>
       <c r="L14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1160,7 +1163,7 @@
         <v>326.93</v>
       </c>
       <c r="L15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1192,7 +1195,7 @@
         <v>542.4</v>
       </c>
       <c r="L16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1224,7 +1227,7 @@
         <v>296.92</v>
       </c>
       <c r="L17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1256,7 +1259,7 @@
         <v>126.73</v>
       </c>
       <c r="L18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1288,7 +1291,7 @@
         <v>38.15</v>
       </c>
       <c r="L19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1320,7 +1323,7 @@
         <v>4.92</v>
       </c>
       <c r="L20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1352,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1384,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1416,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1448,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1480,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1512,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1544,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1576,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1608,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1640,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1672,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1704,7 +1707,7 @@
         <v>0.08</v>
       </c>
       <c r="L32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1736,7 +1739,7 @@
         <v>17.65</v>
       </c>
       <c r="L33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1768,7 +1771,7 @@
         <v>85.23999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1800,7 +1803,7 @@
         <v>115.58</v>
       </c>
       <c r="L35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1832,7 +1835,7 @@
         <v>182.09</v>
       </c>
       <c r="L36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1864,7 +1867,7 @@
         <v>291.24</v>
       </c>
       <c r="L37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1896,7 +1899,7 @@
         <v>316.99</v>
       </c>
       <c r="L38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1928,7 +1931,7 @@
         <v>127.26</v>
       </c>
       <c r="L39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1960,7 +1963,7 @@
         <v>77.86</v>
       </c>
       <c r="L40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1992,7 +1995,7 @@
         <v>103.18</v>
       </c>
       <c r="L41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2024,7 +2027,7 @@
         <v>54.64</v>
       </c>
       <c r="L42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2056,7 +2059,7 @@
         <v>12.58</v>
       </c>
       <c r="L43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2088,7 +2091,7 @@
         <v>2.81</v>
       </c>
       <c r="L44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2120,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2152,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2184,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2216,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2248,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2280,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2312,7 +2315,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="L51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2344,7 +2347,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="L52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2376,7 +2379,7 @@
         <v>0.12</v>
       </c>
       <c r="L53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2408,7 +2411,7 @@
         <v>0.21</v>
       </c>
       <c r="L54" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2440,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2472,7 +2475,7 @@
         <v>0.02</v>
       </c>
       <c r="L56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2504,7 +2507,7 @@
         <v>7.29</v>
       </c>
       <c r="L57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2536,7 +2539,7 @@
         <v>31.71</v>
       </c>
       <c r="L58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2568,7 +2571,7 @@
         <v>147.67</v>
       </c>
       <c r="L59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2600,7 +2603,7 @@
         <v>186.79</v>
       </c>
       <c r="L60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2632,7 +2635,7 @@
         <v>234.46</v>
       </c>
       <c r="L61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2664,7 +2667,7 @@
         <v>240.12</v>
       </c>
       <c r="L62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2696,7 +2699,7 @@
         <v>224.78</v>
       </c>
       <c r="L63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2728,7 +2731,7 @@
         <v>116.79</v>
       </c>
       <c r="L64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2760,7 +2763,7 @@
         <v>113.64</v>
       </c>
       <c r="L65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2792,7 +2795,7 @@
         <v>67.14</v>
       </c>
       <c r="L66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2824,7 +2827,7 @@
         <v>23.71</v>
       </c>
       <c r="L67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2856,7 +2859,7 @@
         <v>2.32</v>
       </c>
       <c r="L68" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2888,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2920,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2952,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2984,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3016,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3045,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3077,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3109,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3141,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3173,7 +3176,7 @@
         <v>0.01</v>
       </c>
       <c r="L78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3205,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3237,7 +3240,7 @@
         <v>0.36</v>
       </c>
       <c r="L80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3269,7 +3272,7 @@
         <v>19.95</v>
       </c>
       <c r="L81" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3301,7 +3304,7 @@
         <v>54.58</v>
       </c>
       <c r="L82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3333,7 +3336,7 @@
         <v>141.55</v>
       </c>
       <c r="L83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3365,7 +3368,7 @@
         <v>196.72</v>
       </c>
       <c r="L84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3397,7 +3400,7 @@
         <v>255.97</v>
       </c>
       <c r="L85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3429,7 +3432,7 @@
         <v>419</v>
       </c>
       <c r="L86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3461,7 +3464,7 @@
         <v>705.35</v>
       </c>
       <c r="L87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3493,7 +3496,7 @@
         <v>522.33</v>
       </c>
       <c r="L88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3525,7 +3528,7 @@
         <v>523.79</v>
       </c>
       <c r="L89" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3557,7 +3560,39 @@
         <v>242.32</v>
       </c>
       <c r="L90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>100</v>
+      </c>
+      <c r="C91">
+        <v>13.54</v>
+      </c>
+      <c r="D91">
+        <v>6.91</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>-40</v>
+      </c>
+      <c r="H91">
+        <v>-61.62</v>
+      </c>
+      <c r="I91">
+        <v>-0.01</v>
+      </c>
+      <c r="J91">
+        <v>57.76</v>
+      </c>
+      <c r="L91" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
   <si>
     <t>Fecha</t>
   </si>
@@ -49,150 +49,6 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/3/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 11:00:00 PM</t>
-  </si>
-  <si>
     <t>11/5/2020 12:00:00 AM</t>
   </si>
   <si>
@@ -317,6 +173,147 @@
   </si>
   <si>
     <t>11/6/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:00:00 PM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -677,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,28 +723,28 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>12.91</v>
+        <v>12.9</v>
       </c>
       <c r="D2">
-        <v>5.76</v>
+        <v>3.21</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F2">
-        <v>59.11</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>9.449999999999999</v>
+        <v>1.96</v>
       </c>
       <c r="I2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -758,28 +755,28 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>12.9</v>
+        <v>12.88</v>
       </c>
       <c r="D3">
-        <v>4.72</v>
+        <v>3.15</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="F3">
-        <v>5.11</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>-32.02</v>
+        <v>1.72</v>
       </c>
       <c r="I3">
-        <v>-161.91</v>
+        <v>-161.31</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -790,28 +787,28 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>12.87</v>
+        <v>12.85</v>
       </c>
       <c r="D4">
-        <v>4.67</v>
+        <v>3.02</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F4">
-        <v>-39.37</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>-63.77</v>
+        <v>1.13</v>
       </c>
       <c r="I4">
-        <v>-0.02</v>
+        <v>-0.11</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -822,28 +819,28 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>12.85</v>
+        <v>12.82</v>
       </c>
       <c r="D5">
-        <v>4.5</v>
+        <v>2.96</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F5">
-        <v>-30.83</v>
+        <v>60</v>
       </c>
       <c r="H5">
-        <v>-57.98</v>
+        <v>0.88</v>
       </c>
       <c r="I5">
-        <v>-0.04</v>
+        <v>-0.1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -854,28 +851,28 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>12.82</v>
+        <v>12.79</v>
       </c>
       <c r="D6">
-        <v>4.35</v>
+        <v>2.99</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F6">
-        <v>-15.36</v>
+        <v>60</v>
       </c>
       <c r="H6">
-        <v>-47.28</v>
+        <v>1.01</v>
       </c>
       <c r="I6">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="L6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -886,28 +883,28 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>12.8</v>
+        <v>12.76</v>
       </c>
       <c r="D7">
-        <v>4.31</v>
+        <v>3.12</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F7">
-        <v>15.64</v>
+        <v>60</v>
       </c>
       <c r="H7">
-        <v>-25.63</v>
+        <v>1.58</v>
       </c>
       <c r="I7">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -918,28 +915,28 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>12.77</v>
+        <v>12.74</v>
       </c>
       <c r="D8">
-        <v>4.45</v>
+        <v>3.3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F8">
-        <v>7.61</v>
+        <v>60</v>
       </c>
       <c r="H8">
-        <v>-30.97</v>
+        <v>2.32</v>
       </c>
       <c r="I8">
-        <v>-0.17</v>
+        <v>0.18</v>
       </c>
       <c r="J8">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -950,28 +947,28 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>12.82</v>
+        <v>12.75</v>
       </c>
       <c r="D9">
-        <v>3.78</v>
+        <v>3.88</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F9">
         <v>60</v>
       </c>
       <c r="H9">
-        <v>4.19</v>
+        <v>4.52</v>
       </c>
       <c r="I9">
-        <v>0.36</v>
+        <v>-0.25</v>
       </c>
       <c r="J9">
-        <v>14.51</v>
+        <v>7.29</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -982,28 +979,28 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>13.36</v>
+        <v>13.02</v>
       </c>
       <c r="D10">
-        <v>3.62</v>
+        <v>4.47</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="F10">
-        <v>60</v>
+        <v>59.92</v>
       </c>
       <c r="H10">
-        <v>3.61</v>
+        <v>6.45</v>
       </c>
       <c r="I10">
-        <v>0.03</v>
+        <v>-0.29</v>
       </c>
       <c r="J10">
-        <v>61.99</v>
+        <v>31.71</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1014,28 +1011,28 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>13.51</v>
+        <v>13.54</v>
       </c>
       <c r="D11">
-        <v>3.75</v>
+        <v>5.61</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F11">
-        <v>60</v>
+        <v>23.44</v>
       </c>
       <c r="H11">
-        <v>4.06</v>
+        <v>-17.27</v>
       </c>
       <c r="I11">
-        <v>-0.04</v>
+        <v>0.08</v>
       </c>
       <c r="J11">
-        <v>113.02</v>
+        <v>147.67</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1049,25 +1046,25 @@
         <v>13.56</v>
       </c>
       <c r="D12">
-        <v>3.92</v>
+        <v>7.42</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F12">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H12">
-        <v>4.7</v>
+        <v>-61.14</v>
       </c>
       <c r="I12">
-        <v>-0.17</v>
+        <v>0.15</v>
       </c>
       <c r="J12">
-        <v>164.98</v>
+        <v>186.79</v>
       </c>
       <c r="L12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1078,28 +1075,28 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>13.57</v>
+        <v>13.56</v>
       </c>
       <c r="D13">
-        <v>3.91</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F13">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H13">
-        <v>4.65</v>
+        <v>-60.56</v>
       </c>
       <c r="I13">
-        <v>-0.65</v>
+        <v>-0.03</v>
       </c>
       <c r="J13">
-        <v>267.14</v>
+        <v>234.46</v>
       </c>
       <c r="L13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1110,28 +1107,28 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="D14">
-        <v>3.57</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F14">
-        <v>60</v>
+        <v>-39.03</v>
       </c>
       <c r="H14">
-        <v>3.41</v>
+        <v>-58.93</v>
       </c>
       <c r="I14">
-        <v>-0.24</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J14">
-        <v>403.48</v>
+        <v>240.12</v>
       </c>
       <c r="L14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1142,28 +1139,28 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="D15">
-        <v>3.46</v>
+        <v>10.78</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F15">
-        <v>60</v>
+        <v>-31.94</v>
       </c>
       <c r="H15">
-        <v>2.94</v>
+        <v>-52.22</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="J15">
-        <v>326.93</v>
+        <v>224.78</v>
       </c>
       <c r="L15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1174,28 +1171,28 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>13.59</v>
+        <v>13.57</v>
       </c>
       <c r="D16">
-        <v>3.4</v>
+        <v>11.89</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F16">
-        <v>60</v>
+        <v>-28.57</v>
       </c>
       <c r="H16">
-        <v>2.74</v>
+        <v>-48.74</v>
       </c>
       <c r="I16">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J16">
-        <v>542.4</v>
+        <v>116.79</v>
       </c>
       <c r="L16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1206,28 +1203,28 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>13.59</v>
+        <v>13.57</v>
       </c>
       <c r="D17">
-        <v>3.45</v>
+        <v>13.86</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F17">
-        <v>59.82</v>
+        <v>-3.71</v>
       </c>
       <c r="H17">
-        <v>2.76</v>
+        <v>-27.52</v>
       </c>
       <c r="I17">
-        <v>0.27</v>
+        <v>-0.15</v>
       </c>
       <c r="J17">
-        <v>296.92</v>
+        <v>113.64</v>
       </c>
       <c r="L17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1238,28 +1235,28 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>13.59</v>
+        <v>13.57</v>
       </c>
       <c r="D18">
-        <v>3.29</v>
+        <v>10.71</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F18">
-        <v>60</v>
+        <v>-18.65</v>
       </c>
       <c r="H18">
-        <v>2.29</v>
+        <v>-41.86</v>
       </c>
       <c r="I18">
-        <v>0.36</v>
+        <v>-0.08</v>
       </c>
       <c r="J18">
-        <v>126.73</v>
+        <v>67.14</v>
       </c>
       <c r="L18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1270,28 +1267,28 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>13.52</v>
+        <v>13.36</v>
       </c>
       <c r="D19">
-        <v>4.83</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>6.61</v>
+        <v>-35.78</v>
       </c>
       <c r="H19">
-        <v>-31.33</v>
+        <v>-56.84</v>
       </c>
       <c r="I19">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="J19">
-        <v>38.15</v>
+        <v>23.71</v>
       </c>
       <c r="L19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1305,25 +1302,25 @@
         <v>13.02</v>
       </c>
       <c r="D20">
-        <v>5.7</v>
+        <v>8.59</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F20">
-        <v>-40</v>
+        <v>-35.7</v>
       </c>
       <c r="H20">
-        <v>-62.92</v>
+        <v>-56.83</v>
       </c>
       <c r="I20">
-        <v>-0.31</v>
+        <v>0.16</v>
       </c>
       <c r="J20">
-        <v>4.92</v>
+        <v>2.32</v>
       </c>
       <c r="L20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1334,28 +1331,28 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>12.98</v>
+        <v>12.99</v>
       </c>
       <c r="D21">
-        <v>4.82</v>
+        <v>10.2</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F21">
-        <v>-39.61</v>
+        <v>-22.06</v>
       </c>
       <c r="H21">
-        <v>-63.81</v>
+        <v>-44.96</v>
       </c>
       <c r="I21">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1366,28 +1363,28 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>12.96</v>
+        <v>12.97</v>
       </c>
       <c r="D22">
-        <v>3.79</v>
+        <v>8.23</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>-39.95</v>
+        <v>-40</v>
       </c>
       <c r="H22">
-        <v>-65.53</v>
+        <v>-60.41</v>
       </c>
       <c r="I22">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1398,28 +1395,28 @@
         <v>32</v>
       </c>
       <c r="C23">
-        <v>12.94</v>
+        <v>12.96</v>
       </c>
       <c r="D23">
-        <v>3.75</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="F23">
-        <v>-38.95</v>
+        <v>-40</v>
       </c>
       <c r="H23">
-        <v>-64.88</v>
+        <v>-60.36</v>
       </c>
       <c r="I23">
-        <v>0.34</v>
+        <v>-0.65</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1430,28 +1427,28 @@
         <v>33</v>
       </c>
       <c r="C24">
-        <v>12.93</v>
+        <v>12.94</v>
       </c>
       <c r="D24">
-        <v>3.98</v>
+        <v>8.32</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="F24">
-        <v>-35.71</v>
+        <v>-40</v>
       </c>
       <c r="H24">
-        <v>-62.22</v>
+        <v>-60.34</v>
       </c>
       <c r="I24">
-        <v>0.16</v>
+        <v>-9.85</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1462,28 +1459,28 @@
         <v>34</v>
       </c>
       <c r="C25">
-        <v>12.91</v>
+        <v>12.93</v>
       </c>
       <c r="D25">
-        <v>4.77</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="F25">
-        <v>-24.27</v>
+        <v>-40</v>
       </c>
       <c r="H25">
-        <v>-52.83</v>
+        <v>-60.01</v>
       </c>
       <c r="I25">
-        <v>-0.11</v>
+        <v>-8.6</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1493,29 +1490,26 @@
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26">
-        <v>12.9</v>
-      </c>
       <c r="D26">
-        <v>4.13</v>
+        <v>8.85</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F26">
-        <v>-38.1</v>
+        <v>-40</v>
       </c>
       <c r="H26">
-        <v>-63.67</v>
+        <v>-59.9</v>
       </c>
       <c r="I26">
-        <v>-0.06</v>
+        <v>-6.32</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1526,28 +1520,28 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>12.88</v>
+        <v>12.9</v>
       </c>
       <c r="D27">
-        <v>3.44</v>
+        <v>8.91</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F27">
-        <v>48.69</v>
+        <v>-40</v>
       </c>
       <c r="H27">
-        <v>-4.97</v>
+        <v>-59.86</v>
       </c>
       <c r="I27">
-        <v>-160.81</v>
+        <v>-188.52</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1558,28 +1552,28 @@
         <v>37</v>
       </c>
       <c r="C28">
-        <v>12.86</v>
+        <v>12.87</v>
       </c>
       <c r="D28">
-        <v>3.26</v>
+        <v>9.06</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F28">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H28">
-        <v>2.18</v>
+        <v>-59.74</v>
       </c>
       <c r="I28">
-        <v>-0.22</v>
+        <v>-0.53</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1590,28 +1584,28 @@
         <v>38</v>
       </c>
       <c r="C29">
-        <v>12.83</v>
+        <v>12.85</v>
       </c>
       <c r="D29">
-        <v>3.2</v>
+        <v>9.67</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F29">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H29">
-        <v>1.9</v>
+        <v>-59.28</v>
       </c>
       <c r="I29">
-        <v>-0.26</v>
+        <v>-0.39</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1622,28 +1616,28 @@
         <v>39</v>
       </c>
       <c r="C30">
-        <v>12.8</v>
+        <v>12.82</v>
       </c>
       <c r="D30">
-        <v>3.16</v>
+        <v>9.91</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F30">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H30">
-        <v>1.75</v>
+        <v>-59.1</v>
       </c>
       <c r="I30">
-        <v>0.06</v>
+        <v>-0.48</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1654,28 +1648,28 @@
         <v>40</v>
       </c>
       <c r="C31">
-        <v>12.77</v>
+        <v>12.8</v>
       </c>
       <c r="D31">
-        <v>3.14</v>
+        <v>9.4</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H31">
-        <v>1.65</v>
+        <v>-59.51</v>
       </c>
       <c r="I31">
-        <v>-0.04</v>
+        <v>-0.28</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1686,28 +1680,28 @@
         <v>41</v>
       </c>
       <c r="C32">
-        <v>12.74</v>
+        <v>12.77</v>
       </c>
       <c r="D32">
-        <v>3.12</v>
+        <v>10.02</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H32">
-        <v>1.57</v>
+        <v>-59.02</v>
       </c>
       <c r="I32">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="J32">
-        <v>0.08</v>
+        <v>0.36</v>
       </c>
       <c r="L32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1718,28 +1712,28 @@
         <v>42</v>
       </c>
       <c r="C33">
-        <v>12.81</v>
+        <v>12.9</v>
       </c>
       <c r="D33">
-        <v>3.13</v>
+        <v>9.98</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H33">
-        <v>1.59</v>
+        <v>-59.06</v>
       </c>
       <c r="I33">
-        <v>-0.29</v>
+        <v>-0.2</v>
       </c>
       <c r="J33">
-        <v>17.65</v>
+        <v>19.95</v>
       </c>
       <c r="L33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1750,28 +1744,28 @@
         <v>43</v>
       </c>
       <c r="C34">
-        <v>13.46</v>
+        <v>13.37</v>
       </c>
       <c r="D34">
-        <v>3.14</v>
+        <v>10.44</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F34">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H34">
-        <v>1.67</v>
+        <v>-58.73</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>-0.55</v>
       </c>
       <c r="J34">
-        <v>85.23999999999999</v>
+        <v>54.58</v>
       </c>
       <c r="L34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1782,28 +1776,28 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>13.54</v>
+        <v>13.55</v>
       </c>
       <c r="D35">
-        <v>3.14</v>
+        <v>11.12</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H35">
-        <v>1.66</v>
+        <v>-58.28</v>
       </c>
       <c r="I35">
-        <v>0.09</v>
+        <v>-0.16</v>
       </c>
       <c r="J35">
-        <v>115.58</v>
+        <v>141.55</v>
       </c>
       <c r="L35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1817,25 +1811,25 @@
         <v>13.56</v>
       </c>
       <c r="D36">
-        <v>3.14</v>
+        <v>12.08</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H36">
-        <v>1.67</v>
+        <v>-57.67</v>
       </c>
       <c r="I36">
-        <v>-0.15</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J36">
-        <v>182.09</v>
+        <v>196.72</v>
       </c>
       <c r="L36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1846,28 +1840,28 @@
         <v>46</v>
       </c>
       <c r="C37">
-        <v>13.56</v>
+        <v>13.57</v>
       </c>
       <c r="D37">
-        <v>3.16</v>
+        <v>13.21</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H37">
-        <v>1.73</v>
+        <v>-57.02</v>
       </c>
       <c r="I37">
-        <v>0.41</v>
+        <v>0.06</v>
       </c>
       <c r="J37">
-        <v>291.24</v>
+        <v>255.97</v>
       </c>
       <c r="L37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1878,28 +1872,28 @@
         <v>47</v>
       </c>
       <c r="C38">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="D38">
-        <v>3.25</v>
+        <v>14.85</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>60</v>
+        <v>-27.95</v>
       </c>
       <c r="H38">
-        <v>2.14</v>
+        <v>-46.34</v>
       </c>
       <c r="I38">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="J38">
-        <v>316.99</v>
+        <v>419</v>
       </c>
       <c r="L38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1910,28 +1904,28 @@
         <v>48</v>
       </c>
       <c r="C39">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D39">
-        <v>3.24</v>
+        <v>16.67</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>60</v>
+        <v>-21.5</v>
       </c>
       <c r="H39">
-        <v>2.09</v>
+        <v>-40.02</v>
       </c>
       <c r="I39">
-        <v>0.02</v>
+        <v>-0.13</v>
       </c>
       <c r="J39">
-        <v>127.26</v>
+        <v>705.35</v>
       </c>
       <c r="L39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1942,28 +1936,28 @@
         <v>49</v>
       </c>
       <c r="C40">
-        <v>13.57</v>
+        <v>13.61</v>
       </c>
       <c r="D40">
-        <v>3.25</v>
+        <v>14.99</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>60</v>
+        <v>-38.76</v>
       </c>
       <c r="H40">
-        <v>2.12</v>
+        <v>-55.08</v>
       </c>
       <c r="I40">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>77.86</v>
+        <v>522.33</v>
       </c>
       <c r="L40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1974,28 +1968,28 @@
         <v>50</v>
       </c>
       <c r="C41">
-        <v>13.57</v>
+        <v>13.62</v>
       </c>
       <c r="D41">
-        <v>3.21</v>
+        <v>13.88</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H41">
-        <v>1.97</v>
+        <v>-56.65</v>
       </c>
       <c r="I41">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J41">
-        <v>103.18</v>
+        <v>523.79</v>
       </c>
       <c r="L41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2006,28 +2000,28 @@
         <v>51</v>
       </c>
       <c r="C42">
-        <v>13.57</v>
+        <v>13.62</v>
       </c>
       <c r="D42">
-        <v>3.2</v>
+        <v>9.59</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H42">
-        <v>1.92</v>
+        <v>-59.48</v>
       </c>
       <c r="I42">
-        <v>-0.37</v>
+        <v>0.24</v>
       </c>
       <c r="J42">
-        <v>54.64</v>
+        <v>242.32</v>
       </c>
       <c r="L42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2038,28 +2032,28 @@
         <v>52</v>
       </c>
       <c r="C43">
-        <v>13.14</v>
+        <v>13.54</v>
       </c>
       <c r="D43">
-        <v>3.22</v>
+        <v>6.91</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H43">
-        <v>2.01</v>
+        <v>-61.62</v>
       </c>
       <c r="I43">
-        <v>0.47</v>
+        <v>-0.01</v>
       </c>
       <c r="J43">
-        <v>12.58</v>
+        <v>57.76</v>
       </c>
       <c r="L43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2070,28 +2064,28 @@
         <v>53</v>
       </c>
       <c r="C44">
-        <v>13.01</v>
+        <v>13.05</v>
       </c>
       <c r="D44">
-        <v>3.22</v>
+        <v>6.69</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>-61.83</v>
       </c>
       <c r="I44">
-        <v>0.29</v>
+        <v>0.05</v>
       </c>
       <c r="J44">
-        <v>2.81</v>
+        <v>2.45</v>
       </c>
       <c r="L44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2102,28 +2096,28 @@
         <v>54</v>
       </c>
       <c r="C45">
-        <v>12.98</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>3.23</v>
+        <v>7.65</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H45">
-        <v>2.02</v>
+        <v>-60.92</v>
       </c>
       <c r="I45">
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2134,28 +2128,28 @@
         <v>55</v>
       </c>
       <c r="C46">
-        <v>12.97</v>
+        <v>12.98</v>
       </c>
       <c r="D46">
-        <v>3.23</v>
+        <v>8.68</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H46">
-        <v>2.05</v>
+        <v>-60.05</v>
       </c>
       <c r="I46">
-        <v>-0.02</v>
+        <v>-0.29</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2166,28 +2160,28 @@
         <v>56</v>
       </c>
       <c r="C47">
-        <v>12.95</v>
+        <v>12.96</v>
       </c>
       <c r="D47">
-        <v>3.22</v>
+        <v>11.64</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>60</v>
+        <v>-26.39</v>
       </c>
       <c r="H47">
-        <v>1.99</v>
+        <v>-47.14</v>
       </c>
       <c r="I47">
-        <v>-0.15</v>
+        <v>-0.27</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2198,28 +2192,28 @@
         <v>57</v>
       </c>
       <c r="C48">
-        <v>12.93</v>
+        <v>12.94</v>
       </c>
       <c r="D48">
-        <v>3.23</v>
+        <v>10.64</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>60</v>
+        <v>-36.82</v>
       </c>
       <c r="H48">
-        <v>2.02</v>
+        <v>-56.11</v>
       </c>
       <c r="I48">
-        <v>-0.16</v>
+        <v>-0.41</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2233,25 +2227,25 @@
         <v>12.92</v>
       </c>
       <c r="D49">
-        <v>3.21</v>
+        <v>11.26</v>
       </c>
       <c r="E49">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="F49">
-        <v>60</v>
+        <v>-33.97</v>
       </c>
       <c r="H49">
-        <v>1.94</v>
+        <v>-53.44</v>
       </c>
       <c r="I49">
-        <v>0.38</v>
+        <v>-3.17</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2262,28 +2256,28 @@
         <v>59</v>
       </c>
       <c r="C50">
-        <v>12.9</v>
+        <v>12.91</v>
       </c>
       <c r="D50">
-        <v>3.21</v>
+        <v>12.75</v>
       </c>
       <c r="E50">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F50">
-        <v>60</v>
+        <v>-27.16</v>
       </c>
       <c r="H50">
-        <v>1.96</v>
+        <v>-47.02</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2294,28 +2288,28 @@
         <v>60</v>
       </c>
       <c r="C51">
-        <v>12.88</v>
+        <v>12.89</v>
       </c>
       <c r="D51">
-        <v>3.15</v>
+        <v>11.77</v>
       </c>
       <c r="E51">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>60</v>
+        <v>-32.69</v>
       </c>
       <c r="H51">
-        <v>1.72</v>
+        <v>-52.09</v>
       </c>
       <c r="I51">
-        <v>-161.31</v>
+        <v>-195.16</v>
       </c>
       <c r="J51">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2326,28 +2320,28 @@
         <v>61</v>
       </c>
       <c r="C52">
-        <v>12.85</v>
+        <v>12.88</v>
       </c>
       <c r="D52">
-        <v>3.02</v>
+        <v>12.12</v>
       </c>
       <c r="E52">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>60</v>
+        <v>-31.35</v>
       </c>
       <c r="H52">
-        <v>1.13</v>
+        <v>-50.81</v>
       </c>
       <c r="I52">
-        <v>-0.11</v>
+        <v>0.05</v>
       </c>
       <c r="J52">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2358,28 +2352,28 @@
         <v>62</v>
       </c>
       <c r="C53">
-        <v>12.82</v>
+        <v>12.85</v>
       </c>
       <c r="D53">
-        <v>2.96</v>
+        <v>11.39</v>
       </c>
       <c r="E53">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="F53">
-        <v>60</v>
+        <v>-38.11</v>
       </c>
       <c r="H53">
-        <v>0.88</v>
+        <v>-56.62</v>
       </c>
       <c r="I53">
-        <v>-0.1</v>
+        <v>0.08</v>
       </c>
       <c r="J53">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2390,28 +2384,28 @@
         <v>63</v>
       </c>
       <c r="C54">
-        <v>12.79</v>
+        <v>12.84</v>
       </c>
       <c r="D54">
-        <v>2.99</v>
+        <v>16.42</v>
       </c>
       <c r="E54">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>60</v>
+        <v>-12.72</v>
       </c>
       <c r="H54">
-        <v>1.01</v>
+        <v>-32.98</v>
       </c>
       <c r="I54">
-        <v>0.05</v>
+        <v>-0.3</v>
       </c>
       <c r="J54">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2422,28 +2416,28 @@
         <v>64</v>
       </c>
       <c r="C55">
-        <v>12.76</v>
+        <v>12.81</v>
       </c>
       <c r="D55">
-        <v>3.12</v>
+        <v>14.59</v>
       </c>
       <c r="E55">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>60</v>
+        <v>-23.34</v>
       </c>
       <c r="H55">
-        <v>1.58</v>
+        <v>-42.68</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2454,28 +2448,28 @@
         <v>65</v>
       </c>
       <c r="C56">
-        <v>12.74</v>
+        <v>12.8</v>
       </c>
       <c r="D56">
-        <v>3.3</v>
+        <v>7.05</v>
       </c>
       <c r="E56">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>60</v>
+        <v>-2.94</v>
       </c>
       <c r="H56">
-        <v>2.32</v>
+        <v>-37.58</v>
       </c>
       <c r="I56">
-        <v>0.18</v>
+        <v>-0.29</v>
       </c>
       <c r="J56">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="L56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2486,28 +2480,28 @@
         <v>66</v>
       </c>
       <c r="C57">
-        <v>12.75</v>
+        <v>12.99</v>
       </c>
       <c r="D57">
-        <v>3.88</v>
+        <v>1.6</v>
       </c>
       <c r="E57">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>60</v>
       </c>
       <c r="H57">
-        <v>4.52</v>
+        <v>-7.12</v>
       </c>
       <c r="I57">
-        <v>-0.25</v>
+        <v>-0.02</v>
       </c>
       <c r="J57">
-        <v>7.29</v>
+        <v>29.51</v>
       </c>
       <c r="L57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2518,28 +2512,28 @@
         <v>67</v>
       </c>
       <c r="C58">
-        <v>13.02</v>
+        <v>13.51</v>
       </c>
       <c r="D58">
-        <v>4.47</v>
+        <v>1.84</v>
       </c>
       <c r="E58">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>59.92</v>
+        <v>-3.56</v>
       </c>
       <c r="H58">
-        <v>6.45</v>
+        <v>-46.92</v>
       </c>
       <c r="I58">
-        <v>-0.29</v>
+        <v>0.05</v>
       </c>
       <c r="J58">
-        <v>31.71</v>
+        <v>91.66</v>
       </c>
       <c r="L58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2550,28 +2544,28 @@
         <v>68</v>
       </c>
       <c r="C59">
-        <v>13.54</v>
+        <v>13.56</v>
       </c>
       <c r="D59">
-        <v>5.61</v>
+        <v>2.19</v>
       </c>
       <c r="E59">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>23.44</v>
+        <v>-40</v>
       </c>
       <c r="H59">
-        <v>-17.27</v>
+        <v>-68.91</v>
       </c>
       <c r="I59">
-        <v>0.08</v>
+        <v>0.48</v>
       </c>
       <c r="J59">
-        <v>147.67</v>
+        <v>164.12</v>
       </c>
       <c r="L59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2582,28 +2576,28 @@
         <v>69</v>
       </c>
       <c r="C60">
-        <v>13.56</v>
+        <v>13.57</v>
       </c>
       <c r="D60">
-        <v>7.42</v>
+        <v>2.47</v>
       </c>
       <c r="E60">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>-40</v>
       </c>
       <c r="H60">
-        <v>-61.14</v>
+        <v>-68.2</v>
       </c>
       <c r="I60">
-        <v>0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="J60">
-        <v>186.79</v>
+        <v>271.97</v>
       </c>
       <c r="L60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2614,28 +2608,28 @@
         <v>70</v>
       </c>
       <c r="C61">
-        <v>13.56</v>
+        <v>13.58</v>
       </c>
       <c r="D61">
-        <v>8.050000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="E61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>-40</v>
       </c>
       <c r="H61">
-        <v>-60.56</v>
+        <v>-69.25</v>
       </c>
       <c r="I61">
-        <v>-0.03</v>
+        <v>0.09</v>
       </c>
       <c r="J61">
-        <v>234.46</v>
+        <v>395.9</v>
       </c>
       <c r="L61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2646,28 +2640,28 @@
         <v>71</v>
       </c>
       <c r="C62">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="D62">
-        <v>9.140000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="E62">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>-39.03</v>
+        <v>-40</v>
       </c>
       <c r="H62">
-        <v>-58.93</v>
+        <v>-73.84999999999999</v>
       </c>
       <c r="I62">
-        <v>-0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="J62">
-        <v>240.12</v>
+        <v>716.1</v>
       </c>
       <c r="L62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2678,28 +2672,28 @@
         <v>72</v>
       </c>
       <c r="C63">
-        <v>13.57</v>
+        <v>13.61</v>
       </c>
       <c r="D63">
-        <v>10.78</v>
+        <v>1.07</v>
       </c>
       <c r="E63">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>-31.94</v>
+        <v>-40</v>
       </c>
       <c r="H63">
-        <v>-52.22</v>
+        <v>-73.03</v>
       </c>
       <c r="I63">
-        <v>-0.09</v>
+        <v>0.15</v>
       </c>
       <c r="J63">
-        <v>224.78</v>
+        <v>824.65</v>
       </c>
       <c r="L63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2710,28 +2704,28 @@
         <v>73</v>
       </c>
       <c r="C64">
-        <v>13.57</v>
+        <v>13.63</v>
       </c>
       <c r="D64">
-        <v>11.89</v>
+        <v>1.64</v>
       </c>
       <c r="E64">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>-28.57</v>
+        <v>-40</v>
       </c>
       <c r="H64">
-        <v>-48.74</v>
+        <v>-70.58</v>
       </c>
       <c r="I64">
-        <v>0.05</v>
+        <v>0.39</v>
       </c>
       <c r="J64">
-        <v>116.79</v>
+        <v>752.58</v>
       </c>
       <c r="L64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2742,28 +2736,28 @@
         <v>74</v>
       </c>
       <c r="C65">
-        <v>13.57</v>
+        <v>13.63</v>
       </c>
       <c r="D65">
-        <v>13.86</v>
+        <v>1.96</v>
       </c>
       <c r="E65">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>-3.71</v>
+        <v>-40</v>
       </c>
       <c r="H65">
-        <v>-27.52</v>
+        <v>-69.59</v>
       </c>
       <c r="I65">
-        <v>-0.15</v>
+        <v>0.09</v>
       </c>
       <c r="J65">
-        <v>113.64</v>
+        <v>730.87</v>
       </c>
       <c r="L65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2774,28 +2768,28 @@
         <v>75</v>
       </c>
       <c r="C66">
-        <v>13.57</v>
+        <v>13.64</v>
       </c>
       <c r="D66">
-        <v>10.71</v>
+        <v>2.17</v>
       </c>
       <c r="E66">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>-18.65</v>
+        <v>-40</v>
       </c>
       <c r="H66">
-        <v>-41.86</v>
+        <v>-69.05</v>
       </c>
       <c r="I66">
-        <v>-0.08</v>
+        <v>-0.05</v>
       </c>
       <c r="J66">
-        <v>67.14</v>
+        <v>532.87</v>
       </c>
       <c r="L66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2806,28 +2800,28 @@
         <v>76</v>
       </c>
       <c r="C67">
-        <v>13.36</v>
+        <v>13.62</v>
       </c>
       <c r="D67">
-        <v>8.609999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-35.78</v>
+        <v>-40</v>
       </c>
       <c r="H67">
-        <v>-56.84</v>
+        <v>-74.09</v>
       </c>
       <c r="I67">
-        <v>0.13</v>
+        <v>0.48</v>
       </c>
       <c r="J67">
-        <v>23.71</v>
+        <v>145.66</v>
       </c>
       <c r="L67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2838,28 +2832,28 @@
         <v>77</v>
       </c>
       <c r="C68">
-        <v>13.02</v>
+        <v>13.11</v>
       </c>
       <c r="D68">
-        <v>8.59</v>
+        <v>0.63</v>
       </c>
       <c r="E68">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>-35.7</v>
+        <v>-40</v>
       </c>
       <c r="H68">
-        <v>-56.83</v>
+        <v>-75.68000000000001</v>
       </c>
       <c r="I68">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="J68">
-        <v>2.32</v>
+        <v>5.69</v>
       </c>
       <c r="L68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2870,28 +2864,28 @@
         <v>78</v>
       </c>
       <c r="C69">
-        <v>12.99</v>
+        <v>13.01</v>
       </c>
       <c r="D69">
-        <v>10.2</v>
+        <v>1.2</v>
       </c>
       <c r="E69">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>-22.06</v>
+        <v>-40</v>
       </c>
       <c r="H69">
-        <v>-44.96</v>
+        <v>-72.52</v>
       </c>
       <c r="I69">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2902,28 +2896,28 @@
         <v>79</v>
       </c>
       <c r="C70">
-        <v>12.97</v>
+        <v>12.98</v>
       </c>
       <c r="D70">
-        <v>8.23</v>
+        <v>2.05</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>-40</v>
       </c>
       <c r="H70">
-        <v>-60.41</v>
+        <v>-69.31</v>
       </c>
       <c r="I70">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2937,25 +2931,25 @@
         <v>12.96</v>
       </c>
       <c r="D71">
-        <v>8.289999999999999</v>
+        <v>2.64</v>
       </c>
       <c r="E71">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>-40</v>
+        <v>-39.87</v>
       </c>
       <c r="H71">
-        <v>-60.36</v>
+        <v>-67.73</v>
       </c>
       <c r="I71">
-        <v>-0.65</v>
+        <v>0.13</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2969,25 +2963,25 @@
         <v>12.94</v>
       </c>
       <c r="D72">
-        <v>8.32</v>
+        <v>7.06</v>
       </c>
       <c r="E72">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>-40</v>
+        <v>-26.86</v>
       </c>
       <c r="H72">
-        <v>-60.34</v>
+        <v>-52.03</v>
       </c>
       <c r="I72">
-        <v>-9.85</v>
+        <v>-0.06</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2998,28 +2992,28 @@
         <v>82</v>
       </c>
       <c r="C73">
-        <v>12.93</v>
+        <v>12.91</v>
       </c>
       <c r="D73">
-        <v>8.710000000000001</v>
+        <v>10.57</v>
       </c>
       <c r="E73">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>-40</v>
+        <v>-22.81</v>
       </c>
       <c r="H73">
-        <v>-60.01</v>
+        <v>-49.41</v>
       </c>
       <c r="I73">
-        <v>-8.6</v>
+        <v>-0.13</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3029,26 +3023,29 @@
       <c r="B74" t="s">
         <v>83</v>
       </c>
+      <c r="C74">
+        <v>12.9</v>
+      </c>
       <c r="D74">
-        <v>8.85</v>
+        <v>3.91</v>
       </c>
       <c r="E74">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>-40</v>
+        <v>-36.16</v>
       </c>
       <c r="H74">
-        <v>-59.9</v>
+        <v>-64.98999999999999</v>
       </c>
       <c r="I74">
-        <v>-6.32</v>
+        <v>0.03</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3059,28 +3056,28 @@
         <v>84</v>
       </c>
       <c r="C75">
-        <v>12.9</v>
+        <v>12.88</v>
       </c>
       <c r="D75">
-        <v>8.91</v>
+        <v>4.84</v>
       </c>
       <c r="E75">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>-40</v>
+        <v>-33.58</v>
       </c>
       <c r="H75">
-        <v>-59.86</v>
+        <v>-59.44</v>
       </c>
       <c r="I75">
-        <v>-188.52</v>
+        <v>-193.87</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3091,28 +3088,28 @@
         <v>85</v>
       </c>
       <c r="C76">
-        <v>12.87</v>
+        <v>12.86</v>
       </c>
       <c r="D76">
-        <v>9.06</v>
+        <v>9.19</v>
       </c>
       <c r="E76">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>-40</v>
+        <v>-27.71</v>
       </c>
       <c r="H76">
-        <v>-59.74</v>
+        <v>-52.3</v>
       </c>
       <c r="I76">
-        <v>-0.53</v>
+        <v>-0.06</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3123,28 +3120,28 @@
         <v>86</v>
       </c>
       <c r="C77">
-        <v>12.85</v>
+        <v>12.84</v>
       </c>
       <c r="D77">
-        <v>9.67</v>
+        <v>1.54</v>
       </c>
       <c r="E77">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>-40</v>
       </c>
       <c r="H77">
-        <v>-59.28</v>
+        <v>-71.03</v>
       </c>
       <c r="I77">
-        <v>-0.39</v>
+        <v>-0.02</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3158,25 +3155,25 @@
         <v>12.82</v>
       </c>
       <c r="D78">
-        <v>9.91</v>
+        <v>12.3</v>
       </c>
       <c r="E78">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>-40</v>
+        <v>-26.54</v>
       </c>
       <c r="H78">
-        <v>-59.1</v>
+        <v>-50.6</v>
       </c>
       <c r="I78">
-        <v>-0.48</v>
+        <v>0.2</v>
       </c>
       <c r="J78">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3190,25 +3187,25 @@
         <v>12.8</v>
       </c>
       <c r="D79">
-        <v>9.4</v>
+        <v>3.83</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-40</v>
+        <v>-36.92</v>
       </c>
       <c r="H79">
-        <v>-59.51</v>
+        <v>-65.8</v>
       </c>
       <c r="I79">
-        <v>-0.28</v>
+        <v>-0.1</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3219,10 +3216,10 @@
         <v>89</v>
       </c>
       <c r="C80">
-        <v>12.77</v>
+        <v>12.78</v>
       </c>
       <c r="D80">
-        <v>10.02</v>
+        <v>1.47</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3231,16 +3228,16 @@
         <v>-40</v>
       </c>
       <c r="H80">
-        <v>-59.02</v>
+        <v>-71.47</v>
       </c>
       <c r="I80">
-        <v>-0.02</v>
+        <v>-0.14</v>
       </c>
       <c r="J80">
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
       <c r="L80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3251,28 +3248,28 @@
         <v>90</v>
       </c>
       <c r="C81">
-        <v>12.9</v>
+        <v>12.92</v>
       </c>
       <c r="D81">
-        <v>9.98</v>
+        <v>9.41</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-40</v>
+        <v>-28.38</v>
       </c>
       <c r="H81">
-        <v>-59.06</v>
+        <v>-53.26</v>
       </c>
       <c r="I81">
-        <v>-0.2</v>
+        <v>0.02</v>
       </c>
       <c r="J81">
-        <v>19.95</v>
+        <v>24.59</v>
       </c>
       <c r="L81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3283,28 +3280,28 @@
         <v>91</v>
       </c>
       <c r="C82">
-        <v>13.37</v>
+        <v>13.51</v>
       </c>
       <c r="D82">
-        <v>10.44</v>
+        <v>3.65</v>
       </c>
       <c r="E82">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>-40</v>
+        <v>-37.45</v>
       </c>
       <c r="H82">
-        <v>-58.73</v>
+        <v>-66.06</v>
       </c>
       <c r="I82">
-        <v>-0.55</v>
+        <v>0.05</v>
       </c>
       <c r="J82">
-        <v>54.58</v>
+        <v>103.05</v>
       </c>
       <c r="L82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3318,25 +3315,25 @@
         <v>13.55</v>
       </c>
       <c r="D83">
-        <v>11.12</v>
+        <v>0.74</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>-40</v>
+        <v>-39.98</v>
       </c>
       <c r="H83">
-        <v>-58.28</v>
+        <v>-75.23999999999999</v>
       </c>
       <c r="I83">
         <v>-0.16</v>
       </c>
       <c r="J83">
-        <v>141.55</v>
+        <v>127.02</v>
       </c>
       <c r="L83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3347,28 +3344,28 @@
         <v>93</v>
       </c>
       <c r="C84">
-        <v>13.56</v>
+        <v>13.57</v>
       </c>
       <c r="D84">
-        <v>12.08</v>
+        <v>2.1</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-40</v>
+        <v>-39.62</v>
       </c>
       <c r="H84">
-        <v>-57.67</v>
+        <v>-70.19</v>
       </c>
       <c r="I84">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="J84">
-        <v>196.72</v>
+        <v>192.11</v>
       </c>
       <c r="L84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3379,28 +3376,28 @@
         <v>94</v>
       </c>
       <c r="C85">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="D85">
-        <v>13.21</v>
+        <v>3.34</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-40</v>
+        <v>-38.79</v>
       </c>
       <c r="H85">
-        <v>-57.02</v>
+        <v>-65.51000000000001</v>
       </c>
       <c r="I85">
-        <v>0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J85">
-        <v>255.97</v>
+        <v>352.4</v>
       </c>
       <c r="L85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3411,28 +3408,28 @@
         <v>95</v>
       </c>
       <c r="C86">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D86">
-        <v>14.85</v>
+        <v>22.27</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>-27.95</v>
+        <v>-25.29</v>
       </c>
       <c r="H86">
-        <v>-46.34</v>
+        <v>-41.14</v>
       </c>
       <c r="I86">
-        <v>0.38</v>
+        <v>-0.06</v>
       </c>
       <c r="J86">
-        <v>419</v>
+        <v>878.65</v>
       </c>
       <c r="L86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3443,28 +3440,28 @@
         <v>96</v>
       </c>
       <c r="C87">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D87">
-        <v>16.67</v>
+        <v>25.92</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-21.5</v>
+        <v>-39.93</v>
       </c>
       <c r="H87">
-        <v>-40.02</v>
+        <v>-51.82</v>
       </c>
       <c r="I87">
-        <v>-0.13</v>
+        <v>0.16</v>
       </c>
       <c r="J87">
-        <v>705.35</v>
+        <v>892.02</v>
       </c>
       <c r="L87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3475,28 +3472,28 @@
         <v>97</v>
       </c>
       <c r="C88">
-        <v>13.61</v>
+        <v>13.63</v>
       </c>
       <c r="D88">
-        <v>14.99</v>
+        <v>11.29</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-38.76</v>
+        <v>-39.47</v>
       </c>
       <c r="H88">
-        <v>-55.08</v>
+        <v>-58.55</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J88">
-        <v>522.33</v>
+        <v>720.1799999999999</v>
       </c>
       <c r="L88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3507,28 +3504,28 @@
         <v>98</v>
       </c>
       <c r="C89">
-        <v>13.62</v>
+        <v>13.63</v>
       </c>
       <c r="D89">
-        <v>13.88</v>
+        <v>1.9</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-40</v>
+        <v>7.47</v>
       </c>
       <c r="H89">
-        <v>-56.65</v>
+        <v>-39.88</v>
       </c>
       <c r="I89">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="J89">
-        <v>523.79</v>
+        <v>499.7</v>
       </c>
       <c r="L89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3542,7 +3539,7 @@
         <v>13.62</v>
       </c>
       <c r="D90">
-        <v>9.59</v>
+        <v>1.29</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3551,48 +3548,16 @@
         <v>-40</v>
       </c>
       <c r="H90">
-        <v>-59.48</v>
+        <v>-71.97</v>
       </c>
       <c r="I90">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="J90">
-        <v>242.32</v>
+        <v>107.67</v>
       </c>
       <c r="L90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91">
-        <v>13.54</v>
-      </c>
-      <c r="D91">
-        <v>6.91</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>-40</v>
-      </c>
-      <c r="H91">
-        <v>-61.62</v>
-      </c>
-      <c r="I91">
-        <v>-0.01</v>
-      </c>
-      <c r="J91">
-        <v>57.76</v>
-      </c>
-      <c r="L91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>Fecha</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>11/8/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:00:00 PM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -617,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -684,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -716,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -748,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -780,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -812,7 +815,7 @@
         <v>0.01</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -844,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -876,7 +879,7 @@
         <v>0.36</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -908,7 +911,7 @@
         <v>19.95</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -940,7 +943,7 @@
         <v>54.58</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -972,7 +975,7 @@
         <v>141.55</v>
       </c>
       <c r="L11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1004,7 +1007,7 @@
         <v>196.72</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1036,7 +1039,7 @@
         <v>255.97</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1068,7 +1071,7 @@
         <v>419</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1100,7 +1103,7 @@
         <v>705.35</v>
       </c>
       <c r="L15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1132,7 +1135,7 @@
         <v>522.33</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1164,7 +1167,7 @@
         <v>523.79</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1196,7 +1199,7 @@
         <v>242.32</v>
       </c>
       <c r="L18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1228,7 +1231,7 @@
         <v>57.76</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1260,7 +1263,7 @@
         <v>2.45</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1292,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1324,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1356,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1388,7 +1391,7 @@
         <v>0.02</v>
       </c>
       <c r="L24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1420,7 +1423,7 @@
         <v>0.03</v>
       </c>
       <c r="L25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1452,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1484,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1516,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1548,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1580,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1612,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1644,7 +1647,7 @@
         <v>0.26</v>
       </c>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1676,7 +1679,7 @@
         <v>29.51</v>
       </c>
       <c r="L33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1708,7 +1711,7 @@
         <v>91.66</v>
       </c>
       <c r="L34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1740,7 +1743,7 @@
         <v>164.12</v>
       </c>
       <c r="L35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1772,7 +1775,7 @@
         <v>271.97</v>
       </c>
       <c r="L36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1804,7 +1807,7 @@
         <v>395.9</v>
       </c>
       <c r="L37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1836,7 +1839,7 @@
         <v>716.1</v>
       </c>
       <c r="L38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1868,7 +1871,7 @@
         <v>824.65</v>
       </c>
       <c r="L39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1900,7 +1903,7 @@
         <v>752.58</v>
       </c>
       <c r="L40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1932,7 +1935,7 @@
         <v>730.87</v>
       </c>
       <c r="L41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1964,7 +1967,7 @@
         <v>532.87</v>
       </c>
       <c r="L42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -1996,7 +1999,7 @@
         <v>145.66</v>
       </c>
       <c r="L43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2028,7 +2031,7 @@
         <v>5.69</v>
       </c>
       <c r="L44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2060,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2092,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2124,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2156,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2188,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2220,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2252,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2284,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2316,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2348,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2380,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2412,7 +2415,7 @@
         <v>0.15</v>
       </c>
       <c r="L56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2444,7 +2447,7 @@
         <v>24.59</v>
       </c>
       <c r="L57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2476,7 +2479,7 @@
         <v>103.05</v>
       </c>
       <c r="L58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2508,7 +2511,7 @@
         <v>127.02</v>
       </c>
       <c r="L59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2540,7 +2543,7 @@
         <v>192.11</v>
       </c>
       <c r="L60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2572,7 +2575,7 @@
         <v>352.4</v>
       </c>
       <c r="L61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2604,7 +2607,7 @@
         <v>878.65</v>
       </c>
       <c r="L62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2636,7 +2639,7 @@
         <v>892.02</v>
       </c>
       <c r="L63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2668,7 +2671,7 @@
         <v>720.1799999999999</v>
       </c>
       <c r="L64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2700,7 +2703,7 @@
         <v>499.7</v>
       </c>
       <c r="L65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2732,7 +2735,7 @@
         <v>107.67</v>
       </c>
       <c r="L66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2764,7 +2767,7 @@
         <v>54.75</v>
       </c>
       <c r="L67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2796,7 +2799,7 @@
         <v>3.48</v>
       </c>
       <c r="L68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2828,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2860,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2892,7 +2895,39 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>81</v>
+      </c>
+      <c r="C72">
+        <v>12.93</v>
+      </c>
+      <c r="D72">
+        <v>0.66</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>-40</v>
+      </c>
+      <c r="H72">
+        <v>-75.66</v>
+      </c>
+      <c r="I72">
+        <v>-0.35</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
   <si>
     <t>Fecha</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>11/8/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:00:00 AM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -620,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -719,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -751,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -783,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -815,7 +821,7 @@
         <v>0.01</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -879,7 +885,7 @@
         <v>0.36</v>
       </c>
       <c r="L8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -911,7 +917,7 @@
         <v>19.95</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -943,7 +949,7 @@
         <v>54.58</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -975,7 +981,7 @@
         <v>141.55</v>
       </c>
       <c r="L11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1007,7 +1013,7 @@
         <v>196.72</v>
       </c>
       <c r="L12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1039,7 +1045,7 @@
         <v>255.97</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1071,7 +1077,7 @@
         <v>419</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1103,7 +1109,7 @@
         <v>705.35</v>
       </c>
       <c r="L15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1135,7 +1141,7 @@
         <v>522.33</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1167,7 +1173,7 @@
         <v>523.79</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1199,7 +1205,7 @@
         <v>242.32</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1231,7 +1237,7 @@
         <v>57.76</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1263,7 +1269,7 @@
         <v>2.45</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1295,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1327,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1359,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1391,7 +1397,7 @@
         <v>0.02</v>
       </c>
       <c r="L24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1423,7 +1429,7 @@
         <v>0.03</v>
       </c>
       <c r="L25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1455,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1487,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1519,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1551,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1583,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1615,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1647,7 +1653,7 @@
         <v>0.26</v>
       </c>
       <c r="L32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1679,7 +1685,7 @@
         <v>29.51</v>
       </c>
       <c r="L33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1711,7 +1717,7 @@
         <v>91.66</v>
       </c>
       <c r="L34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1743,7 +1749,7 @@
         <v>164.12</v>
       </c>
       <c r="L35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1775,7 +1781,7 @@
         <v>271.97</v>
       </c>
       <c r="L36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1807,7 +1813,7 @@
         <v>395.9</v>
       </c>
       <c r="L37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1839,7 +1845,7 @@
         <v>716.1</v>
       </c>
       <c r="L38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1871,7 +1877,7 @@
         <v>824.65</v>
       </c>
       <c r="L39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1903,7 +1909,7 @@
         <v>752.58</v>
       </c>
       <c r="L40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1935,7 +1941,7 @@
         <v>730.87</v>
       </c>
       <c r="L41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1967,7 +1973,7 @@
         <v>532.87</v>
       </c>
       <c r="L42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -1999,7 +2005,7 @@
         <v>145.66</v>
       </c>
       <c r="L43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2031,7 +2037,7 @@
         <v>5.69</v>
       </c>
       <c r="L44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2063,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2095,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2127,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2159,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2191,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2223,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2255,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2287,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2319,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2351,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2383,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2415,7 +2421,7 @@
         <v>0.15</v>
       </c>
       <c r="L56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2447,7 +2453,7 @@
         <v>24.59</v>
       </c>
       <c r="L57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2479,7 +2485,7 @@
         <v>103.05</v>
       </c>
       <c r="L58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2511,7 +2517,7 @@
         <v>127.02</v>
       </c>
       <c r="L59" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2543,7 +2549,7 @@
         <v>192.11</v>
       </c>
       <c r="L60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2575,7 +2581,7 @@
         <v>352.4</v>
       </c>
       <c r="L61" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2607,7 +2613,7 @@
         <v>878.65</v>
       </c>
       <c r="L62" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2639,7 +2645,7 @@
         <v>892.02</v>
       </c>
       <c r="L63" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2671,7 +2677,7 @@
         <v>720.1799999999999</v>
       </c>
       <c r="L64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2703,7 +2709,7 @@
         <v>499.7</v>
       </c>
       <c r="L65" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2735,7 +2741,7 @@
         <v>107.67</v>
       </c>
       <c r="L66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2767,7 +2773,7 @@
         <v>54.75</v>
       </c>
       <c r="L67" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2799,7 +2805,7 @@
         <v>3.48</v>
       </c>
       <c r="L68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2831,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2863,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2895,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2927,7 +2933,71 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>82</v>
+      </c>
+      <c r="C73">
+        <v>12.91</v>
+      </c>
+      <c r="D73">
+        <v>1.24</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>-40</v>
+      </c>
+      <c r="H73">
+        <v>-72.17</v>
+      </c>
+      <c r="I73">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74">
+        <v>12.9</v>
+      </c>
+      <c r="D74">
+        <v>1.25</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>-40</v>
+      </c>
+      <c r="H74">
+        <v>-72.09999999999999</v>
+      </c>
+      <c r="I74">
+        <v>0.1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
   <si>
     <t>Fecha</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>11/9/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:00:00 AM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -725,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -757,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -789,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -821,7 +824,7 @@
         <v>0.01</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -853,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -885,7 +888,7 @@
         <v>0.36</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -917,7 +920,7 @@
         <v>19.95</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -949,7 +952,7 @@
         <v>54.58</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -981,7 +984,7 @@
         <v>141.55</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1013,7 +1016,7 @@
         <v>196.72</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1045,7 +1048,7 @@
         <v>255.97</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1077,7 +1080,7 @@
         <v>419</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1109,7 +1112,7 @@
         <v>705.35</v>
       </c>
       <c r="L15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1141,7 +1144,7 @@
         <v>522.33</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1173,7 +1176,7 @@
         <v>523.79</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1205,7 +1208,7 @@
         <v>242.32</v>
       </c>
       <c r="L18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1237,7 +1240,7 @@
         <v>57.76</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1269,7 +1272,7 @@
         <v>2.45</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1301,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1333,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1365,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1397,7 +1400,7 @@
         <v>0.02</v>
       </c>
       <c r="L24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1429,7 +1432,7 @@
         <v>0.03</v>
       </c>
       <c r="L25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1461,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1493,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1525,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1557,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1589,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1621,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1653,7 +1656,7 @@
         <v>0.26</v>
       </c>
       <c r="L32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1685,7 +1688,7 @@
         <v>29.51</v>
       </c>
       <c r="L33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1717,7 +1720,7 @@
         <v>91.66</v>
       </c>
       <c r="L34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1749,7 +1752,7 @@
         <v>164.12</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1781,7 +1784,7 @@
         <v>271.97</v>
       </c>
       <c r="L36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1813,7 +1816,7 @@
         <v>395.9</v>
       </c>
       <c r="L37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1845,7 +1848,7 @@
         <v>716.1</v>
       </c>
       <c r="L38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1877,7 +1880,7 @@
         <v>824.65</v>
       </c>
       <c r="L39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1909,7 +1912,7 @@
         <v>752.58</v>
       </c>
       <c r="L40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1941,7 +1944,7 @@
         <v>730.87</v>
       </c>
       <c r="L41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1973,7 +1976,7 @@
         <v>532.87</v>
       </c>
       <c r="L42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2005,7 +2008,7 @@
         <v>145.66</v>
       </c>
       <c r="L43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2037,7 +2040,7 @@
         <v>5.69</v>
       </c>
       <c r="L44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2069,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2101,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2133,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2165,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2197,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2229,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2261,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2293,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2325,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2357,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2389,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2421,7 +2424,7 @@
         <v>0.15</v>
       </c>
       <c r="L56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2453,7 +2456,7 @@
         <v>24.59</v>
       </c>
       <c r="L57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2485,7 +2488,7 @@
         <v>103.05</v>
       </c>
       <c r="L58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2517,7 +2520,7 @@
         <v>127.02</v>
       </c>
       <c r="L59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2549,7 +2552,7 @@
         <v>192.11</v>
       </c>
       <c r="L60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2581,7 +2584,7 @@
         <v>352.4</v>
       </c>
       <c r="L61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2613,7 +2616,7 @@
         <v>878.65</v>
       </c>
       <c r="L62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2645,7 +2648,7 @@
         <v>892.02</v>
       </c>
       <c r="L63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2677,7 +2680,7 @@
         <v>720.1799999999999</v>
       </c>
       <c r="L64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2709,7 +2712,7 @@
         <v>499.7</v>
       </c>
       <c r="L65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2741,7 +2744,7 @@
         <v>107.67</v>
       </c>
       <c r="L66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2773,7 +2776,7 @@
         <v>54.75</v>
       </c>
       <c r="L67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2805,7 +2808,7 @@
         <v>3.48</v>
       </c>
       <c r="L68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2837,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2869,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2901,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2933,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2965,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -2997,7 +3000,39 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>84</v>
+      </c>
+      <c r="C75">
+        <v>12.88</v>
+      </c>
+      <c r="D75">
+        <v>0.98</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>-40</v>
+      </c>
+      <c r="H75">
+        <v>-73.5</v>
+      </c>
+      <c r="I75">
+        <v>-191.85</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>Fecha</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>11/9/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:00:00 AM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -629,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -728,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -760,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -792,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -824,7 +830,7 @@
         <v>0.01</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -856,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -888,7 +894,7 @@
         <v>0.36</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -920,7 +926,7 @@
         <v>19.95</v>
       </c>
       <c r="L9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -952,7 +958,7 @@
         <v>54.58</v>
       </c>
       <c r="L10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -984,7 +990,7 @@
         <v>141.55</v>
       </c>
       <c r="L11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1016,7 +1022,7 @@
         <v>196.72</v>
       </c>
       <c r="L12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1048,7 +1054,7 @@
         <v>255.97</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1080,7 +1086,7 @@
         <v>419</v>
       </c>
       <c r="L14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1112,7 +1118,7 @@
         <v>705.35</v>
       </c>
       <c r="L15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1144,7 +1150,7 @@
         <v>522.33</v>
       </c>
       <c r="L16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1176,7 +1182,7 @@
         <v>523.79</v>
       </c>
       <c r="L17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1208,7 +1214,7 @@
         <v>242.32</v>
       </c>
       <c r="L18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1240,7 +1246,7 @@
         <v>57.76</v>
       </c>
       <c r="L19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1272,7 +1278,7 @@
         <v>2.45</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1304,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1336,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1368,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1400,7 +1406,7 @@
         <v>0.02</v>
       </c>
       <c r="L24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1432,7 +1438,7 @@
         <v>0.03</v>
       </c>
       <c r="L25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1464,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1496,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1528,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1560,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1592,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1624,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1656,7 +1662,7 @@
         <v>0.26</v>
       </c>
       <c r="L32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1688,7 +1694,7 @@
         <v>29.51</v>
       </c>
       <c r="L33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1720,7 +1726,7 @@
         <v>91.66</v>
       </c>
       <c r="L34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1752,7 +1758,7 @@
         <v>164.12</v>
       </c>
       <c r="L35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1784,7 +1790,7 @@
         <v>271.97</v>
       </c>
       <c r="L36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1816,7 +1822,7 @@
         <v>395.9</v>
       </c>
       <c r="L37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1848,7 +1854,7 @@
         <v>716.1</v>
       </c>
       <c r="L38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1880,7 +1886,7 @@
         <v>824.65</v>
       </c>
       <c r="L39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1912,7 +1918,7 @@
         <v>752.58</v>
       </c>
       <c r="L40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1944,7 +1950,7 @@
         <v>730.87</v>
       </c>
       <c r="L41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1976,7 +1982,7 @@
         <v>532.87</v>
       </c>
       <c r="L42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2008,7 +2014,7 @@
         <v>145.66</v>
       </c>
       <c r="L43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2040,7 +2046,7 @@
         <v>5.69</v>
       </c>
       <c r="L44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2072,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2104,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2136,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2168,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2200,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2232,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2264,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2296,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2328,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2360,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2392,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2424,7 +2430,7 @@
         <v>0.15</v>
       </c>
       <c r="L56" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2456,7 +2462,7 @@
         <v>24.59</v>
       </c>
       <c r="L57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2488,7 +2494,7 @@
         <v>103.05</v>
       </c>
       <c r="L58" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2520,7 +2526,7 @@
         <v>127.02</v>
       </c>
       <c r="L59" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2552,7 +2558,7 @@
         <v>192.11</v>
       </c>
       <c r="L60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2584,7 +2590,7 @@
         <v>352.4</v>
       </c>
       <c r="L61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2616,7 +2622,7 @@
         <v>878.65</v>
       </c>
       <c r="L62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2648,7 +2654,7 @@
         <v>892.02</v>
       </c>
       <c r="L63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2680,7 +2686,7 @@
         <v>720.1799999999999</v>
       </c>
       <c r="L64" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2712,7 +2718,7 @@
         <v>499.7</v>
       </c>
       <c r="L65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2744,7 +2750,7 @@
         <v>107.67</v>
       </c>
       <c r="L66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2776,7 +2782,7 @@
         <v>54.75</v>
       </c>
       <c r="L67" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2808,7 +2814,7 @@
         <v>3.48</v>
       </c>
       <c r="L68" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2840,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2872,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2904,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2936,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2968,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3000,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3032,7 +3038,71 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>85</v>
+      </c>
+      <c r="C76">
+        <v>12.86</v>
+      </c>
+      <c r="D76">
+        <v>1.47</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>-40</v>
+      </c>
+      <c r="H76">
+        <v>-71.29000000000001</v>
+      </c>
+      <c r="I76">
+        <v>0.01</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77">
+        <v>12.84</v>
+      </c>
+      <c r="D77">
+        <v>1.75</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>-40</v>
+      </c>
+      <c r="H77">
+        <v>-70.22</v>
+      </c>
+      <c r="I77">
+        <v>-0.06</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
   <si>
     <t>Fecha</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>11/9/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:00:00 AM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -635,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -734,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -766,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -798,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -830,7 +833,7 @@
         <v>0.01</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -862,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -894,7 +897,7 @@
         <v>0.36</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -926,7 +929,7 @@
         <v>19.95</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -958,7 +961,7 @@
         <v>54.58</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -990,7 +993,7 @@
         <v>141.55</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1022,7 +1025,7 @@
         <v>196.72</v>
       </c>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1054,7 +1057,7 @@
         <v>255.97</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1086,7 +1089,7 @@
         <v>419</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1118,7 +1121,7 @@
         <v>705.35</v>
       </c>
       <c r="L15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1150,7 +1153,7 @@
         <v>522.33</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1182,7 +1185,7 @@
         <v>523.79</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1214,7 +1217,7 @@
         <v>242.32</v>
       </c>
       <c r="L18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1246,7 +1249,7 @@
         <v>57.76</v>
       </c>
       <c r="L19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1278,7 +1281,7 @@
         <v>2.45</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1310,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1342,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1374,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1406,7 +1409,7 @@
         <v>0.02</v>
       </c>
       <c r="L24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1438,7 +1441,7 @@
         <v>0.03</v>
       </c>
       <c r="L25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1470,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1502,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1534,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1566,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1598,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1630,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1662,7 +1665,7 @@
         <v>0.26</v>
       </c>
       <c r="L32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1694,7 +1697,7 @@
         <v>29.51</v>
       </c>
       <c r="L33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1726,7 +1729,7 @@
         <v>91.66</v>
       </c>
       <c r="L34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1758,7 +1761,7 @@
         <v>164.12</v>
       </c>
       <c r="L35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1790,7 +1793,7 @@
         <v>271.97</v>
       </c>
       <c r="L36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1822,7 +1825,7 @@
         <v>395.9</v>
       </c>
       <c r="L37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1854,7 +1857,7 @@
         <v>716.1</v>
       </c>
       <c r="L38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1886,7 +1889,7 @@
         <v>824.65</v>
       </c>
       <c r="L39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1918,7 +1921,7 @@
         <v>752.58</v>
       </c>
       <c r="L40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1950,7 +1953,7 @@
         <v>730.87</v>
       </c>
       <c r="L41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1982,7 +1985,7 @@
         <v>532.87</v>
       </c>
       <c r="L42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2014,7 +2017,7 @@
         <v>145.66</v>
       </c>
       <c r="L43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2046,7 +2049,7 @@
         <v>5.69</v>
       </c>
       <c r="L44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2078,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2110,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2142,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2174,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2206,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2238,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2270,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2302,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2334,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2366,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2398,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2430,7 +2433,7 @@
         <v>0.15</v>
       </c>
       <c r="L56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2462,7 +2465,7 @@
         <v>24.59</v>
       </c>
       <c r="L57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2494,7 +2497,7 @@
         <v>103.05</v>
       </c>
       <c r="L58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2526,7 +2529,7 @@
         <v>127.02</v>
       </c>
       <c r="L59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2558,7 +2561,7 @@
         <v>192.11</v>
       </c>
       <c r="L60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2590,7 +2593,7 @@
         <v>352.4</v>
       </c>
       <c r="L61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2622,7 +2625,7 @@
         <v>878.65</v>
       </c>
       <c r="L62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2654,7 +2657,7 @@
         <v>892.02</v>
       </c>
       <c r="L63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2686,7 +2689,7 @@
         <v>720.1799999999999</v>
       </c>
       <c r="L64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2718,7 +2721,7 @@
         <v>499.7</v>
       </c>
       <c r="L65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2750,7 +2753,7 @@
         <v>107.67</v>
       </c>
       <c r="L66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2782,7 +2785,7 @@
         <v>54.75</v>
       </c>
       <c r="L67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2814,7 +2817,7 @@
         <v>3.48</v>
       </c>
       <c r="L68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2846,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2878,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2910,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2942,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2974,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3006,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3038,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3070,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3102,7 +3105,39 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>87</v>
+      </c>
+      <c r="C78">
+        <v>12.82</v>
+      </c>
+      <c r="D78">
+        <v>2.03</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>-40</v>
+      </c>
+      <c r="H78">
+        <v>-69.36</v>
+      </c>
+      <c r="I78">
+        <v>-0.04</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
   <si>
     <t>Fecha</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>11/9/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:00:00 AM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -638,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -737,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -769,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -833,7 +839,7 @@
         <v>0.01</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -865,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -897,7 +903,7 @@
         <v>0.36</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -929,7 +935,7 @@
         <v>19.95</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -961,7 +967,7 @@
         <v>54.58</v>
       </c>
       <c r="L10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -993,7 +999,7 @@
         <v>141.55</v>
       </c>
       <c r="L11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1025,7 +1031,7 @@
         <v>196.72</v>
       </c>
       <c r="L12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1057,7 +1063,7 @@
         <v>255.97</v>
       </c>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1089,7 +1095,7 @@
         <v>419</v>
       </c>
       <c r="L14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1121,7 +1127,7 @@
         <v>705.35</v>
       </c>
       <c r="L15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1153,7 +1159,7 @@
         <v>522.33</v>
       </c>
       <c r="L16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1185,7 +1191,7 @@
         <v>523.79</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1217,7 +1223,7 @@
         <v>242.32</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1249,7 +1255,7 @@
         <v>57.76</v>
       </c>
       <c r="L19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1281,7 +1287,7 @@
         <v>2.45</v>
       </c>
       <c r="L20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1313,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1345,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1377,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1409,7 +1415,7 @@
         <v>0.02</v>
       </c>
       <c r="L24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1441,7 +1447,7 @@
         <v>0.03</v>
       </c>
       <c r="L25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1473,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1505,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1537,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1569,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1601,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1633,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1665,7 +1671,7 @@
         <v>0.26</v>
       </c>
       <c r="L32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1697,7 +1703,7 @@
         <v>29.51</v>
       </c>
       <c r="L33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1729,7 +1735,7 @@
         <v>91.66</v>
       </c>
       <c r="L34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1761,7 +1767,7 @@
         <v>164.12</v>
       </c>
       <c r="L35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1793,7 +1799,7 @@
         <v>271.97</v>
       </c>
       <c r="L36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1825,7 +1831,7 @@
         <v>395.9</v>
       </c>
       <c r="L37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1857,7 +1863,7 @@
         <v>716.1</v>
       </c>
       <c r="L38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1889,7 +1895,7 @@
         <v>824.65</v>
       </c>
       <c r="L39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1921,7 +1927,7 @@
         <v>752.58</v>
       </c>
       <c r="L40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1953,7 +1959,7 @@
         <v>730.87</v>
       </c>
       <c r="L41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1985,7 +1991,7 @@
         <v>532.87</v>
       </c>
       <c r="L42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2017,7 +2023,7 @@
         <v>145.66</v>
       </c>
       <c r="L43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2049,7 +2055,7 @@
         <v>5.69</v>
       </c>
       <c r="L44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2081,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2113,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2145,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2177,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2209,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2241,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2273,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2305,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2337,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2369,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2401,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2433,7 +2439,7 @@
         <v>0.15</v>
       </c>
       <c r="L56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2465,7 +2471,7 @@
         <v>24.59</v>
       </c>
       <c r="L57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2497,7 +2503,7 @@
         <v>103.05</v>
       </c>
       <c r="L58" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2529,7 +2535,7 @@
         <v>127.02</v>
       </c>
       <c r="L59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2561,7 +2567,7 @@
         <v>192.11</v>
       </c>
       <c r="L60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2593,7 +2599,7 @@
         <v>352.4</v>
       </c>
       <c r="L61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2625,7 +2631,7 @@
         <v>878.65</v>
       </c>
       <c r="L62" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2657,7 +2663,7 @@
         <v>892.02</v>
       </c>
       <c r="L63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2689,7 +2695,7 @@
         <v>720.1799999999999</v>
       </c>
       <c r="L64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2721,7 +2727,7 @@
         <v>499.7</v>
       </c>
       <c r="L65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2753,7 +2759,7 @@
         <v>107.67</v>
       </c>
       <c r="L66" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2785,7 +2791,7 @@
         <v>54.75</v>
       </c>
       <c r="L67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2817,7 +2823,7 @@
         <v>3.48</v>
       </c>
       <c r="L68" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2849,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2881,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2913,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2945,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2977,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3009,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3041,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3073,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3105,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3137,7 +3143,71 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>88</v>
+      </c>
+      <c r="C79">
+        <v>12.8</v>
+      </c>
+      <c r="D79">
+        <v>2.5</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>-40</v>
+      </c>
+      <c r="H79">
+        <v>-68.12</v>
+      </c>
+      <c r="I79">
+        <v>-0.13</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80">
+        <v>12.77</v>
+      </c>
+      <c r="D80">
+        <v>3.21</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>-39.73</v>
+      </c>
+      <c r="H80">
+        <v>-66.43000000000001</v>
+      </c>
+      <c r="I80">
+        <v>-0.02</v>
+      </c>
+      <c r="J80">
+        <v>0.05</v>
+      </c>
+      <c r="L80" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
   <si>
     <t>Fecha</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>11/9/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:00:00 AM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -644,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -743,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -775,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -839,7 +845,7 @@
         <v>0.01</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -871,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -903,7 +909,7 @@
         <v>0.36</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -935,7 +941,7 @@
         <v>19.95</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -967,7 +973,7 @@
         <v>54.58</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -999,7 +1005,7 @@
         <v>141.55</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1031,7 +1037,7 @@
         <v>196.72</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1063,7 +1069,7 @@
         <v>255.97</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1095,7 +1101,7 @@
         <v>419</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1127,7 +1133,7 @@
         <v>705.35</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1159,7 +1165,7 @@
         <v>522.33</v>
       </c>
       <c r="L16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1191,7 +1197,7 @@
         <v>523.79</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1223,7 +1229,7 @@
         <v>242.32</v>
       </c>
       <c r="L18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1255,7 +1261,7 @@
         <v>57.76</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1287,7 +1293,7 @@
         <v>2.45</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1319,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1351,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1383,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1415,7 +1421,7 @@
         <v>0.02</v>
       </c>
       <c r="L24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1447,7 +1453,7 @@
         <v>0.03</v>
       </c>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1479,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1511,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1543,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1575,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1607,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1639,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1671,7 +1677,7 @@
         <v>0.26</v>
       </c>
       <c r="L32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1703,7 +1709,7 @@
         <v>29.51</v>
       </c>
       <c r="L33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1735,7 +1741,7 @@
         <v>91.66</v>
       </c>
       <c r="L34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1767,7 +1773,7 @@
         <v>164.12</v>
       </c>
       <c r="L35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1799,7 +1805,7 @@
         <v>271.97</v>
       </c>
       <c r="L36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1831,7 +1837,7 @@
         <v>395.9</v>
       </c>
       <c r="L37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1863,7 +1869,7 @@
         <v>716.1</v>
       </c>
       <c r="L38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1895,7 +1901,7 @@
         <v>824.65</v>
       </c>
       <c r="L39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1927,7 +1933,7 @@
         <v>752.58</v>
       </c>
       <c r="L40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1959,7 +1965,7 @@
         <v>730.87</v>
       </c>
       <c r="L41" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1991,7 +1997,7 @@
         <v>532.87</v>
       </c>
       <c r="L42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2023,7 +2029,7 @@
         <v>145.66</v>
       </c>
       <c r="L43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2055,7 +2061,7 @@
         <v>5.69</v>
       </c>
       <c r="L44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2087,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2119,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2151,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2183,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2215,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2247,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2279,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2311,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2343,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2375,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2407,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2439,7 +2445,7 @@
         <v>0.15</v>
       </c>
       <c r="L56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2471,7 +2477,7 @@
         <v>24.59</v>
       </c>
       <c r="L57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2503,7 +2509,7 @@
         <v>103.05</v>
       </c>
       <c r="L58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2535,7 +2541,7 @@
         <v>127.02</v>
       </c>
       <c r="L59" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2567,7 +2573,7 @@
         <v>192.11</v>
       </c>
       <c r="L60" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2599,7 +2605,7 @@
         <v>352.4</v>
       </c>
       <c r="L61" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2631,7 +2637,7 @@
         <v>878.65</v>
       </c>
       <c r="L62" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2663,7 +2669,7 @@
         <v>892.02</v>
       </c>
       <c r="L63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2695,7 +2701,7 @@
         <v>720.1799999999999</v>
       </c>
       <c r="L64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2727,7 +2733,7 @@
         <v>499.7</v>
       </c>
       <c r="L65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2759,7 +2765,7 @@
         <v>107.67</v>
       </c>
       <c r="L66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2791,7 +2797,7 @@
         <v>54.75</v>
       </c>
       <c r="L67" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2823,7 +2829,7 @@
         <v>3.48</v>
       </c>
       <c r="L68" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2855,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2887,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2919,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2951,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2983,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3015,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3047,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3079,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3111,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3143,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3175,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3207,7 +3213,71 @@
         <v>0.05</v>
       </c>
       <c r="L80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>90</v>
+      </c>
+      <c r="C81">
+        <v>12.86</v>
+      </c>
+      <c r="D81">
+        <v>6.62</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>-28.98</v>
+      </c>
+      <c r="H81">
+        <v>-53.85</v>
+      </c>
+      <c r="I81">
+        <v>0.16</v>
+      </c>
+      <c r="J81">
+        <v>19.2</v>
+      </c>
+      <c r="L81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82">
+        <v>13.43</v>
+      </c>
+      <c r="D82">
+        <v>13.69</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>-14.42</v>
+      </c>
+      <c r="H82">
+        <v>-36.36</v>
+      </c>
+      <c r="I82">
+        <v>0.31</v>
+      </c>
+      <c r="J82">
+        <v>61.48</v>
+      </c>
+      <c r="L82" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
   <si>
     <t>Fecha</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>11/9/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:00:00 AM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -650,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -749,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -781,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -813,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -845,7 +848,7 @@
         <v>0.01</v>
       </c>
       <c r="L6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -877,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -909,7 +912,7 @@
         <v>0.36</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -941,7 +944,7 @@
         <v>19.95</v>
       </c>
       <c r="L9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -973,7 +976,7 @@
         <v>54.58</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1005,7 +1008,7 @@
         <v>141.55</v>
       </c>
       <c r="L11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1037,7 +1040,7 @@
         <v>196.72</v>
       </c>
       <c r="L12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1069,7 +1072,7 @@
         <v>255.97</v>
       </c>
       <c r="L13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1101,7 +1104,7 @@
         <v>419</v>
       </c>
       <c r="L14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1133,7 +1136,7 @@
         <v>705.35</v>
       </c>
       <c r="L15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1165,7 +1168,7 @@
         <v>522.33</v>
       </c>
       <c r="L16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1197,7 +1200,7 @@
         <v>523.79</v>
       </c>
       <c r="L17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1229,7 +1232,7 @@
         <v>242.32</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1261,7 +1264,7 @@
         <v>57.76</v>
       </c>
       <c r="L19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1293,7 +1296,7 @@
         <v>2.45</v>
       </c>
       <c r="L20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1325,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1357,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1389,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1421,7 +1424,7 @@
         <v>0.02</v>
       </c>
       <c r="L24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1453,7 +1456,7 @@
         <v>0.03</v>
       </c>
       <c r="L25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1485,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1517,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1549,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1581,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1613,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1645,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1677,7 +1680,7 @@
         <v>0.26</v>
       </c>
       <c r="L32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1709,7 +1712,7 @@
         <v>29.51</v>
       </c>
       <c r="L33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1741,7 +1744,7 @@
         <v>91.66</v>
       </c>
       <c r="L34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1773,7 +1776,7 @@
         <v>164.12</v>
       </c>
       <c r="L35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1805,7 +1808,7 @@
         <v>271.97</v>
       </c>
       <c r="L36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1837,7 +1840,7 @@
         <v>395.9</v>
       </c>
       <c r="L37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1869,7 +1872,7 @@
         <v>716.1</v>
       </c>
       <c r="L38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1901,7 +1904,7 @@
         <v>824.65</v>
       </c>
       <c r="L39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1933,7 +1936,7 @@
         <v>752.58</v>
       </c>
       <c r="L40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1965,7 +1968,7 @@
         <v>730.87</v>
       </c>
       <c r="L41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1997,7 +2000,7 @@
         <v>532.87</v>
       </c>
       <c r="L42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2029,7 +2032,7 @@
         <v>145.66</v>
       </c>
       <c r="L43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2061,7 +2064,7 @@
         <v>5.69</v>
       </c>
       <c r="L44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2093,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2125,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2157,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2189,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2221,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2253,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2285,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2317,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2349,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2381,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2413,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2445,7 +2448,7 @@
         <v>0.15</v>
       </c>
       <c r="L56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2477,7 +2480,7 @@
         <v>24.59</v>
       </c>
       <c r="L57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2509,7 +2512,7 @@
         <v>103.05</v>
       </c>
       <c r="L58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2541,7 +2544,7 @@
         <v>127.02</v>
       </c>
       <c r="L59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2573,7 +2576,7 @@
         <v>192.11</v>
       </c>
       <c r="L60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2605,7 +2608,7 @@
         <v>352.4</v>
       </c>
       <c r="L61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2637,7 +2640,7 @@
         <v>878.65</v>
       </c>
       <c r="L62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2669,7 +2672,7 @@
         <v>892.02</v>
       </c>
       <c r="L63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2701,7 +2704,7 @@
         <v>720.1799999999999</v>
       </c>
       <c r="L64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2733,7 +2736,7 @@
         <v>499.7</v>
       </c>
       <c r="L65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2765,7 +2768,7 @@
         <v>107.67</v>
       </c>
       <c r="L66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2797,7 +2800,7 @@
         <v>54.75</v>
       </c>
       <c r="L67" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2829,7 +2832,7 @@
         <v>3.48</v>
       </c>
       <c r="L68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2861,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2893,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2925,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2957,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2989,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3021,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3053,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3085,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3117,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3149,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3181,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3213,7 +3216,7 @@
         <v>0.05</v>
       </c>
       <c r="L80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3245,7 +3248,7 @@
         <v>19.2</v>
       </c>
       <c r="L81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3277,7 +3280,39 @@
         <v>61.48</v>
       </c>
       <c r="L82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>92</v>
+      </c>
+      <c r="C83">
+        <v>13.55</v>
+      </c>
+      <c r="D83">
+        <v>22.39</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>-3.87</v>
+      </c>
+      <c r="H83">
+        <v>-22.64</v>
+      </c>
+      <c r="I83">
+        <v>-0.13</v>
+      </c>
+      <c r="J83">
+        <v>146.89</v>
+      </c>
+      <c r="L83" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="102">
   <si>
     <t>Fecha</t>
   </si>
@@ -49,250 +49,274 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/6/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/9/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 9:00:00 AM</t>
+    <t>11/10/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:00:00 PM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -653,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -701,26 +725,29 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="C2">
+        <v>12.91</v>
+      </c>
       <c r="D2">
-        <v>8.85</v>
+        <v>21.75</v>
       </c>
       <c r="E2">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>-59.9</v>
+        <v>31.16</v>
       </c>
       <c r="I2">
-        <v>-6.32</v>
+        <v>-0.03</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -731,28 +758,28 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>12.9</v>
+        <v>12.89</v>
       </c>
       <c r="D3">
-        <v>8.91</v>
+        <v>20.79</v>
       </c>
       <c r="E3">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="F3">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>-59.86</v>
+        <v>30.39</v>
       </c>
       <c r="I3">
-        <v>-188.52</v>
+        <v>-190.26</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -766,25 +793,25 @@
         <v>12.87</v>
       </c>
       <c r="D4">
-        <v>9.06</v>
+        <v>20.66</v>
       </c>
       <c r="E4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>-59.74</v>
+        <v>30.28</v>
       </c>
       <c r="I4">
-        <v>-0.53</v>
+        <v>0.28</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -798,25 +825,25 @@
         <v>12.85</v>
       </c>
       <c r="D5">
-        <v>9.67</v>
+        <v>20.88</v>
       </c>
       <c r="E5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H5">
-        <v>-59.28</v>
+        <v>30.46</v>
       </c>
       <c r="I5">
-        <v>-0.39</v>
+        <v>0.11</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -827,28 +854,28 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>12.82</v>
+        <v>12.83</v>
       </c>
       <c r="D6">
-        <v>9.91</v>
+        <v>20.35</v>
       </c>
       <c r="E6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H6">
-        <v>-59.1</v>
+        <v>30.02</v>
       </c>
       <c r="I6">
-        <v>-0.48</v>
+        <v>-0.01</v>
       </c>
       <c r="J6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -862,25 +889,25 @@
         <v>12.8</v>
       </c>
       <c r="D7">
-        <v>9.4</v>
+        <v>19.69</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H7">
-        <v>-59.51</v>
+        <v>29.46</v>
       </c>
       <c r="I7">
-        <v>-0.28</v>
+        <v>-0.41</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -891,28 +918,28 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>12.77</v>
+        <v>12.78</v>
       </c>
       <c r="D8">
-        <v>10.02</v>
+        <v>18.86</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H8">
-        <v>-59.02</v>
+        <v>28.73</v>
       </c>
       <c r="I8">
         <v>-0.02</v>
       </c>
       <c r="J8">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -923,28 +950,28 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>12.9</v>
+        <v>13.01</v>
       </c>
       <c r="D9">
-        <v>9.98</v>
+        <v>18.18</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H9">
-        <v>-59.06</v>
+        <v>28.12</v>
       </c>
       <c r="I9">
-        <v>-0.2</v>
+        <v>0.03</v>
       </c>
       <c r="J9">
-        <v>19.95</v>
+        <v>31.62</v>
       </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -955,28 +982,28 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>13.37</v>
+        <v>13.49</v>
       </c>
       <c r="D10">
-        <v>10.44</v>
+        <v>18.55</v>
       </c>
       <c r="E10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H10">
-        <v>-58.73</v>
+        <v>28.46</v>
       </c>
       <c r="I10">
-        <v>-0.55</v>
+        <v>-1.52</v>
       </c>
       <c r="J10">
-        <v>54.58</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="L10" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -987,28 +1014,28 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>13.55</v>
+        <v>13.56</v>
       </c>
       <c r="D11">
-        <v>11.12</v>
+        <v>18.07</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H11">
-        <v>-58.28</v>
+        <v>28.01</v>
       </c>
       <c r="I11">
-        <v>-0.16</v>
+        <v>-1.8</v>
       </c>
       <c r="J11">
-        <v>141.55</v>
+        <v>141.18</v>
       </c>
       <c r="L11" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1019,28 +1046,28 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>13.56</v>
+        <v>13.57</v>
       </c>
       <c r="D12">
-        <v>12.08</v>
+        <v>17.92</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H12">
-        <v>-57.67</v>
+        <v>27.88</v>
       </c>
       <c r="I12">
-        <v>-0.07000000000000001</v>
+        <v>-0.21</v>
       </c>
       <c r="J12">
-        <v>196.72</v>
+        <v>212.41</v>
       </c>
       <c r="L12" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1051,28 +1078,28 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="D13">
-        <v>13.21</v>
+        <v>18.21</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H13">
-        <v>-57.02</v>
+        <v>28.14</v>
       </c>
       <c r="I13">
-        <v>0.06</v>
+        <v>-0.25</v>
       </c>
       <c r="J13">
-        <v>255.97</v>
+        <v>334.81</v>
       </c>
       <c r="L13" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1083,28 +1110,28 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D14">
-        <v>14.85</v>
+        <v>19.14</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-27.95</v>
+        <v>60</v>
       </c>
       <c r="H14">
-        <v>-46.34</v>
+        <v>28.98</v>
       </c>
       <c r="I14">
-        <v>0.38</v>
+        <v>-0.18</v>
       </c>
       <c r="J14">
-        <v>419</v>
+        <v>661.99</v>
       </c>
       <c r="L14" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1118,25 +1145,25 @@
         <v>13.6</v>
       </c>
       <c r="D15">
-        <v>16.67</v>
+        <v>13.44</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-21.5</v>
+        <v>60</v>
       </c>
       <c r="H15">
-        <v>-40.02</v>
+        <v>22.71</v>
       </c>
       <c r="I15">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="J15">
-        <v>705.35</v>
+        <v>416.89</v>
       </c>
       <c r="L15" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1147,28 +1174,28 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="D16">
-        <v>14.99</v>
+        <v>9.73</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-38.76</v>
+        <v>60</v>
       </c>
       <c r="H16">
-        <v>-55.08</v>
+        <v>17.96</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="J16">
-        <v>522.33</v>
+        <v>204.17</v>
       </c>
       <c r="L16" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1179,28 +1206,28 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D17">
-        <v>13.88</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-40</v>
+        <v>9.59</v>
       </c>
       <c r="H17">
-        <v>-56.65</v>
+        <v>-22.26</v>
       </c>
       <c r="I17">
-        <v>0.5</v>
+        <v>0.04</v>
       </c>
       <c r="J17">
-        <v>523.79</v>
+        <v>488.86</v>
       </c>
       <c r="L17" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1211,10 +1238,10 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D18">
-        <v>9.59</v>
+        <v>5.28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1223,16 +1250,16 @@
         <v>-40</v>
       </c>
       <c r="H18">
-        <v>-59.48</v>
+        <v>-63.44</v>
       </c>
       <c r="I18">
-        <v>0.24</v>
+        <v>0.54</v>
       </c>
       <c r="J18">
-        <v>242.32</v>
+        <v>331.86</v>
       </c>
       <c r="L18" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1243,10 +1270,10 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>13.54</v>
+        <v>13.61</v>
       </c>
       <c r="D19">
-        <v>6.91</v>
+        <v>3.76</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1255,16 +1282,16 @@
         <v>-40</v>
       </c>
       <c r="H19">
-        <v>-61.62</v>
+        <v>-65.63</v>
       </c>
       <c r="I19">
-        <v>-0.01</v>
+        <v>0.49</v>
       </c>
       <c r="J19">
-        <v>57.76</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="L19" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1275,10 +1302,10 @@
         <v>29</v>
       </c>
       <c r="C20">
-        <v>13.05</v>
+        <v>13.17</v>
       </c>
       <c r="D20">
-        <v>6.69</v>
+        <v>3.14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1287,16 +1314,16 @@
         <v>-40</v>
       </c>
       <c r="H20">
-        <v>-61.83</v>
+        <v>-66.73999999999999</v>
       </c>
       <c r="I20">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="J20">
-        <v>2.45</v>
+        <v>12.11</v>
       </c>
       <c r="L20" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1307,10 +1334,10 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>13.01</v>
       </c>
       <c r="D21">
-        <v>7.65</v>
+        <v>2.72</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1319,16 +1346,16 @@
         <v>-40</v>
       </c>
       <c r="H21">
-        <v>-60.92</v>
+        <v>-67.62</v>
       </c>
       <c r="I21">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1339,10 +1366,10 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>12.98</v>
+        <v>12.97</v>
       </c>
       <c r="D22">
-        <v>8.68</v>
+        <v>2.62</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1351,16 +1378,16 @@
         <v>-40</v>
       </c>
       <c r="H22">
-        <v>-60.05</v>
+        <v>-67.83</v>
       </c>
       <c r="I22">
-        <v>-0.29</v>
+        <v>0.11</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1374,25 +1401,25 @@
         <v>12.96</v>
       </c>
       <c r="D23">
-        <v>11.64</v>
+        <v>2.79</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-26.39</v>
+        <v>-40</v>
       </c>
       <c r="H23">
-        <v>-47.14</v>
+        <v>-67.45</v>
       </c>
       <c r="I23">
-        <v>-0.27</v>
+        <v>-0.03</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1406,25 +1433,25 @@
         <v>12.94</v>
       </c>
       <c r="D24">
-        <v>10.64</v>
+        <v>3.13</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>-36.82</v>
+        <v>-40</v>
       </c>
       <c r="H24">
-        <v>-56.11</v>
+        <v>-66.75</v>
       </c>
       <c r="I24">
-        <v>-0.41</v>
+        <v>0.19</v>
       </c>
       <c r="J24">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1438,25 +1465,25 @@
         <v>12.92</v>
       </c>
       <c r="D25">
-        <v>11.26</v>
+        <v>2.97</v>
       </c>
       <c r="E25">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>-33.97</v>
+        <v>-40</v>
       </c>
       <c r="H25">
-        <v>-53.44</v>
+        <v>-67.09999999999999</v>
       </c>
       <c r="I25">
-        <v>-3.17</v>
+        <v>0.09</v>
       </c>
       <c r="J25">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1470,25 +1497,25 @@
         <v>12.91</v>
       </c>
       <c r="D26">
-        <v>12.75</v>
+        <v>2.75</v>
       </c>
       <c r="E26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>-27.16</v>
+        <v>-40</v>
       </c>
       <c r="H26">
-        <v>-47.02</v>
+        <v>-67.56</v>
       </c>
       <c r="I26">
-        <v>-0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1502,25 +1529,25 @@
         <v>12.89</v>
       </c>
       <c r="D27">
-        <v>11.77</v>
+        <v>4.89</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-32.69</v>
+        <v>-39.95</v>
       </c>
       <c r="H27">
-        <v>-52.09</v>
+        <v>-64.29000000000001</v>
       </c>
       <c r="I27">
-        <v>-195.16</v>
+        <v>-192.62</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1531,28 +1558,28 @@
         <v>37</v>
       </c>
       <c r="C28">
-        <v>12.88</v>
+        <v>12.87</v>
       </c>
       <c r="D28">
-        <v>12.12</v>
+        <v>3.54</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-31.35</v>
+        <v>-39.79</v>
       </c>
       <c r="H28">
-        <v>-50.81</v>
+        <v>-66.36</v>
       </c>
       <c r="I28">
-        <v>0.05</v>
+        <v>-0.2</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1566,25 +1593,25 @@
         <v>12.85</v>
       </c>
       <c r="D29">
-        <v>11.39</v>
+        <v>5.7</v>
       </c>
       <c r="E29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>-38.11</v>
+        <v>-39.24</v>
       </c>
       <c r="H29">
-        <v>-56.62</v>
+        <v>-62.58</v>
       </c>
       <c r="I29">
-        <v>0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1595,28 +1622,28 @@
         <v>39</v>
       </c>
       <c r="C30">
-        <v>12.84</v>
+        <v>12.82</v>
       </c>
       <c r="D30">
-        <v>16.42</v>
+        <v>3.89</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-12.72</v>
+        <v>-40</v>
       </c>
       <c r="H30">
-        <v>-32.98</v>
+        <v>-65.56999999999999</v>
       </c>
       <c r="I30">
-        <v>-0.3</v>
+        <v>-0.17</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1627,28 +1654,28 @@
         <v>40</v>
       </c>
       <c r="C31">
-        <v>12.81</v>
+        <v>12.79</v>
       </c>
       <c r="D31">
-        <v>14.59</v>
+        <v>2.99</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-23.34</v>
+        <v>-40</v>
       </c>
       <c r="H31">
-        <v>-42.68</v>
+        <v>-67.09</v>
       </c>
       <c r="I31">
-        <v>-0.3</v>
+        <v>0.05</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1659,28 +1686,28 @@
         <v>41</v>
       </c>
       <c r="C32">
-        <v>12.8</v>
+        <v>12.77</v>
       </c>
       <c r="D32">
-        <v>7.05</v>
+        <v>3.61</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>-2.94</v>
+        <v>-40</v>
       </c>
       <c r="H32">
-        <v>-37.58</v>
+        <v>-66.27</v>
       </c>
       <c r="I32">
-        <v>-0.29</v>
+        <v>0.13</v>
       </c>
       <c r="J32">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="L32" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1691,28 +1718,28 @@
         <v>42</v>
       </c>
       <c r="C33">
-        <v>12.99</v>
+        <v>12.86</v>
       </c>
       <c r="D33">
-        <v>1.6</v>
+        <v>4.12</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="H33">
-        <v>-7.12</v>
+        <v>-65.90000000000001</v>
       </c>
       <c r="I33">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="J33">
-        <v>29.51</v>
+        <v>18.57</v>
       </c>
       <c r="L33" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1723,28 +1750,28 @@
         <v>43</v>
       </c>
       <c r="C34">
-        <v>13.51</v>
+        <v>13.32</v>
       </c>
       <c r="D34">
-        <v>1.84</v>
+        <v>3.69</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-3.56</v>
+        <v>-40</v>
       </c>
       <c r="H34">
-        <v>-46.92</v>
+        <v>-66.56999999999999</v>
       </c>
       <c r="I34">
-        <v>0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="J34">
-        <v>91.66</v>
+        <v>54.67</v>
       </c>
       <c r="L34" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1755,10 +1782,10 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>13.56</v>
+        <v>13.55</v>
       </c>
       <c r="D35">
-        <v>2.19</v>
+        <v>14.05</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1767,16 +1794,16 @@
         <v>-40</v>
       </c>
       <c r="H35">
-        <v>-68.91</v>
+        <v>-56.59</v>
       </c>
       <c r="I35">
-        <v>0.48</v>
+        <v>0.19</v>
       </c>
       <c r="J35">
-        <v>164.12</v>
+        <v>127.74</v>
       </c>
       <c r="L35" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1787,28 +1814,28 @@
         <v>45</v>
       </c>
       <c r="C36">
-        <v>13.57</v>
+        <v>13.56</v>
       </c>
       <c r="D36">
-        <v>2.47</v>
+        <v>7.2</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-40</v>
+        <v>-10.92</v>
       </c>
       <c r="H36">
-        <v>-68.2</v>
+        <v>-42.41</v>
       </c>
       <c r="I36">
-        <v>-0.16</v>
+        <v>0.29</v>
       </c>
       <c r="J36">
-        <v>271.97</v>
+        <v>147.94</v>
       </c>
       <c r="L36" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1819,28 +1846,28 @@
         <v>46</v>
       </c>
       <c r="C37">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="D37">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>-40</v>
+        <v>59.36</v>
       </c>
       <c r="H37">
-        <v>-69.25</v>
+        <v>-7.95</v>
       </c>
       <c r="I37">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="J37">
-        <v>395.9</v>
+        <v>436.52</v>
       </c>
       <c r="L37" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1851,28 +1878,28 @@
         <v>47</v>
       </c>
       <c r="C38">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D38">
-        <v>0.93</v>
+        <v>17.76</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-40</v>
+        <v>-30.21</v>
       </c>
       <c r="H38">
-        <v>-73.84999999999999</v>
+        <v>-48.17</v>
       </c>
       <c r="I38">
-        <v>0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="J38">
-        <v>716.1</v>
+        <v>927.0700000000001</v>
       </c>
       <c r="L38" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1883,28 +1910,28 @@
         <v>48</v>
       </c>
       <c r="C39">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D39">
-        <v>1.07</v>
+        <v>16.92</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-40</v>
+        <v>-6.3</v>
       </c>
       <c r="H39">
-        <v>-73.03</v>
+        <v>-31.74</v>
       </c>
       <c r="I39">
-        <v>0.15</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J39">
-        <v>824.65</v>
+        <v>919.46</v>
       </c>
       <c r="L39" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1918,25 +1945,25 @@
         <v>13.63</v>
       </c>
       <c r="D40">
-        <v>1.64</v>
+        <v>15.4</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-40</v>
+        <v>-17.4</v>
       </c>
       <c r="H40">
-        <v>-70.58</v>
+        <v>-38.04</v>
       </c>
       <c r="I40">
-        <v>0.39</v>
+        <v>-0.12</v>
       </c>
       <c r="J40">
-        <v>752.58</v>
+        <v>799.42</v>
       </c>
       <c r="L40" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1947,28 +1974,28 @@
         <v>50</v>
       </c>
       <c r="C41">
-        <v>13.63</v>
+        <v>13.64</v>
       </c>
       <c r="D41">
-        <v>1.96</v>
+        <v>0.86</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-40</v>
+        <v>50.56</v>
       </c>
       <c r="H41">
-        <v>-69.59</v>
+        <v>-59.41</v>
       </c>
       <c r="I41">
-        <v>0.09</v>
+        <v>0.52</v>
       </c>
       <c r="J41">
-        <v>730.87</v>
+        <v>640.1</v>
       </c>
       <c r="L41" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1982,25 +2009,25 @@
         <v>13.64</v>
       </c>
       <c r="D42">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H42">
-        <v>-69.05</v>
+        <v>-106.11</v>
       </c>
       <c r="I42">
-        <v>-0.05</v>
+        <v>0.73</v>
       </c>
       <c r="J42">
-        <v>532.87</v>
+        <v>416.61</v>
       </c>
       <c r="L42" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2014,25 +2041,25 @@
         <v>13.62</v>
       </c>
       <c r="D43">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H43">
-        <v>-74.09</v>
+        <v>-106.11</v>
       </c>
       <c r="I43">
-        <v>0.48</v>
+        <v>-0.02</v>
       </c>
       <c r="J43">
-        <v>145.66</v>
+        <v>120.87</v>
       </c>
       <c r="L43" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2043,28 +2070,28 @@
         <v>53</v>
       </c>
       <c r="C44">
-        <v>13.11</v>
+        <v>13.08</v>
       </c>
       <c r="D44">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H44">
-        <v>-75.68000000000001</v>
+        <v>-106.11</v>
       </c>
       <c r="I44">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="J44">
-        <v>5.69</v>
+        <v>4.38</v>
       </c>
       <c r="L44" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2075,28 +2102,28 @@
         <v>54</v>
       </c>
       <c r="C45">
-        <v>13.01</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H45">
-        <v>-72.52</v>
+        <v>-106.11</v>
       </c>
       <c r="I45">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2110,25 +2137,25 @@
         <v>12.98</v>
       </c>
       <c r="D46">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H46">
-        <v>-69.31</v>
+        <v>-106.11</v>
       </c>
       <c r="I46">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2139,28 +2166,28 @@
         <v>56</v>
       </c>
       <c r="C47">
-        <v>12.96</v>
+        <v>12.95</v>
       </c>
       <c r="D47">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-39.87</v>
+        <v>60</v>
       </c>
       <c r="H47">
-        <v>-67.73</v>
+        <v>-106.11</v>
       </c>
       <c r="I47">
-        <v>0.13</v>
+        <v>-0.04</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2171,28 +2198,28 @@
         <v>57</v>
       </c>
       <c r="C48">
-        <v>12.94</v>
+        <v>12.93</v>
       </c>
       <c r="D48">
-        <v>7.06</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>-26.86</v>
+        <v>60</v>
       </c>
       <c r="H48">
-        <v>-52.03</v>
+        <v>-106.11</v>
       </c>
       <c r="I48">
-        <v>-0.06</v>
+        <v>0.44</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2206,25 +2233,25 @@
         <v>12.91</v>
       </c>
       <c r="D49">
-        <v>10.57</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-22.81</v>
+        <v>60</v>
       </c>
       <c r="H49">
-        <v>-49.41</v>
+        <v>-106.11</v>
       </c>
       <c r="I49">
-        <v>-0.13</v>
+        <v>0.12</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2238,25 +2265,25 @@
         <v>12.9</v>
       </c>
       <c r="D50">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-36.16</v>
+        <v>60</v>
       </c>
       <c r="H50">
-        <v>-64.98999999999999</v>
+        <v>-106.11</v>
       </c>
       <c r="I50">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2270,25 +2297,25 @@
         <v>12.88</v>
       </c>
       <c r="D51">
-        <v>4.84</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>-33.58</v>
+        <v>60</v>
       </c>
       <c r="H51">
-        <v>-59.44</v>
+        <v>-106.11</v>
       </c>
       <c r="I51">
-        <v>-193.87</v>
+        <v>-190.51</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2299,28 +2326,28 @@
         <v>61</v>
       </c>
       <c r="C52">
-        <v>12.86</v>
+        <v>12.85</v>
       </c>
       <c r="D52">
-        <v>9.19</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-27.71</v>
+        <v>60</v>
       </c>
       <c r="H52">
-        <v>-52.3</v>
+        <v>-106.11</v>
       </c>
       <c r="I52">
-        <v>-0.06</v>
+        <v>0.28</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2331,28 +2358,28 @@
         <v>62</v>
       </c>
       <c r="C53">
-        <v>12.84</v>
+        <v>12.83</v>
       </c>
       <c r="D53">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H53">
-        <v>-71.03</v>
+        <v>-106.11</v>
       </c>
       <c r="I53">
-        <v>-0.02</v>
+        <v>-0.09</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2363,28 +2390,28 @@
         <v>63</v>
       </c>
       <c r="C54">
-        <v>12.82</v>
+        <v>12.81</v>
       </c>
       <c r="D54">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-26.54</v>
+        <v>60</v>
       </c>
       <c r="H54">
-        <v>-50.6</v>
+        <v>-106.11</v>
       </c>
       <c r="I54">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2395,28 +2422,28 @@
         <v>64</v>
       </c>
       <c r="C55">
-        <v>12.8</v>
+        <v>12.78</v>
       </c>
       <c r="D55">
-        <v>3.83</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-36.92</v>
+        <v>60</v>
       </c>
       <c r="H55">
-        <v>-65.8</v>
+        <v>-106.11</v>
       </c>
       <c r="I55">
-        <v>-0.1</v>
+        <v>-0.15</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2427,28 +2454,34 @@
         <v>65</v>
       </c>
       <c r="C56">
-        <v>12.78</v>
+        <v>12.77</v>
       </c>
       <c r="D56">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>-40</v>
+        <v>60</v>
+      </c>
+      <c r="G56">
+        <v>129.36</v>
       </c>
       <c r="H56">
-        <v>-71.47</v>
+        <v>-106.11</v>
       </c>
       <c r="I56">
-        <v>-0.14</v>
+        <v>0.13</v>
       </c>
       <c r="J56">
-        <v>0.15</v>
+        <v>0.08</v>
+      </c>
+      <c r="K56">
+        <v>1.21</v>
       </c>
       <c r="L56" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2459,28 +2492,34 @@
         <v>66</v>
       </c>
       <c r="C57">
-        <v>12.92</v>
+        <v>12.9</v>
       </c>
       <c r="D57">
-        <v>9.41</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-28.38</v>
+        <v>60</v>
+      </c>
+      <c r="G57">
+        <v>133.46</v>
       </c>
       <c r="H57">
-        <v>-53.26</v>
+        <v>-106.11</v>
       </c>
       <c r="I57">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="J57">
-        <v>24.59</v>
+        <v>17.91</v>
+      </c>
+      <c r="K57">
+        <v>1.18</v>
       </c>
       <c r="L57" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2491,28 +2530,34 @@
         <v>67</v>
       </c>
       <c r="C58">
-        <v>13.51</v>
+        <v>13.45</v>
       </c>
       <c r="D58">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>-37.45</v>
+        <v>60</v>
+      </c>
+      <c r="G58">
+        <v>115.42</v>
       </c>
       <c r="H58">
-        <v>-66.06</v>
+        <v>-106.11</v>
       </c>
       <c r="I58">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="J58">
-        <v>103.05</v>
+        <v>91.62</v>
+      </c>
+      <c r="K58">
+        <v>1.27</v>
       </c>
       <c r="L58" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2523,28 +2568,28 @@
         <v>68</v>
       </c>
       <c r="C59">
-        <v>13.55</v>
+        <v>13.56</v>
       </c>
       <c r="D59">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-39.98</v>
+        <v>60</v>
       </c>
       <c r="H59">
-        <v>-75.23999999999999</v>
+        <v>-106.11</v>
       </c>
       <c r="I59">
-        <v>-0.16</v>
+        <v>-0.1</v>
       </c>
       <c r="J59">
-        <v>127.02</v>
+        <v>121.8</v>
       </c>
       <c r="L59" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2558,25 +2603,25 @@
         <v>13.57</v>
       </c>
       <c r="D60">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-39.62</v>
+        <v>60</v>
       </c>
       <c r="H60">
-        <v>-70.19</v>
+        <v>-106.11</v>
       </c>
       <c r="I60">
-        <v>-0.06</v>
+        <v>0.23</v>
       </c>
       <c r="J60">
-        <v>192.11</v>
+        <v>176.53</v>
       </c>
       <c r="L60" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2587,28 +2632,28 @@
         <v>70</v>
       </c>
       <c r="C61">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="D61">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-38.79</v>
+        <v>60</v>
       </c>
       <c r="H61">
-        <v>-65.51000000000001</v>
+        <v>-106.11</v>
       </c>
       <c r="I61">
-        <v>-0.07000000000000001</v>
+        <v>-0.11</v>
       </c>
       <c r="J61">
-        <v>352.4</v>
+        <v>438.23</v>
       </c>
       <c r="L61" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2619,28 +2664,28 @@
         <v>71</v>
       </c>
       <c r="C62">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D62">
-        <v>22.27</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-25.29</v>
+        <v>60</v>
       </c>
       <c r="H62">
-        <v>-41.14</v>
+        <v>-106.11</v>
       </c>
       <c r="I62">
-        <v>-0.06</v>
+        <v>0.24</v>
       </c>
       <c r="J62">
-        <v>878.65</v>
+        <v>924.99</v>
       </c>
       <c r="L62" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2654,25 +2699,25 @@
         <v>13.61</v>
       </c>
       <c r="D63">
-        <v>25.92</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-39.93</v>
+        <v>60</v>
       </c>
       <c r="H63">
-        <v>-51.82</v>
+        <v>-106.11</v>
       </c>
       <c r="I63">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="J63">
-        <v>892.02</v>
+        <v>915.79</v>
       </c>
       <c r="L63" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2686,25 +2731,25 @@
         <v>13.63</v>
       </c>
       <c r="D64">
-        <v>11.29</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-39.47</v>
+        <v>60</v>
       </c>
       <c r="H64">
-        <v>-58.55</v>
+        <v>-106.11</v>
       </c>
       <c r="I64">
-        <v>1.02</v>
+        <v>0.23</v>
       </c>
       <c r="J64">
-        <v>720.1799999999999</v>
+        <v>840</v>
       </c>
       <c r="L64" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2715,28 +2760,28 @@
         <v>74</v>
       </c>
       <c r="C65">
-        <v>13.63</v>
+        <v>13.64</v>
       </c>
       <c r="D65">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>7.47</v>
+        <v>60</v>
       </c>
       <c r="H65">
-        <v>-39.88</v>
+        <v>-106.11</v>
       </c>
       <c r="I65">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="J65">
-        <v>499.7</v>
+        <v>683.16</v>
       </c>
       <c r="L65" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2747,28 +2792,28 @@
         <v>75</v>
       </c>
       <c r="C66">
-        <v>13.62</v>
+        <v>13.64</v>
       </c>
       <c r="D66">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H66">
-        <v>-71.97</v>
+        <v>-106.11</v>
       </c>
       <c r="I66">
-        <v>0.06</v>
+        <v>0.39</v>
       </c>
       <c r="J66">
-        <v>107.67</v>
+        <v>457.65</v>
       </c>
       <c r="L66" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2779,28 +2824,28 @@
         <v>76</v>
       </c>
       <c r="C67">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D67">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H67">
-        <v>-71.73</v>
+        <v>-106.11</v>
       </c>
       <c r="I67">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="J67">
-        <v>54.75</v>
+        <v>197.05</v>
       </c>
       <c r="L67" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2811,28 +2856,28 @@
         <v>77</v>
       </c>
       <c r="C68">
-        <v>13.05</v>
+        <v>13.15</v>
       </c>
       <c r="D68">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H68">
-        <v>-70.84</v>
+        <v>-106.11</v>
       </c>
       <c r="I68">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J68">
-        <v>3.48</v>
+        <v>10.91</v>
       </c>
       <c r="L68" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2843,28 +2888,28 @@
         <v>78</v>
       </c>
       <c r="C69">
-        <v>12.99</v>
+        <v>13</v>
       </c>
       <c r="D69">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H69">
-        <v>-75.56999999999999</v>
+        <v>-106.11</v>
       </c>
       <c r="I69">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2878,16 +2923,16 @@
         <v>12.97</v>
       </c>
       <c r="D70">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H70">
-        <v>-77.31999999999999</v>
+        <v>-106.11</v>
       </c>
       <c r="I70">
         <v>0.18</v>
@@ -2896,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2910,25 +2955,25 @@
         <v>12.95</v>
       </c>
       <c r="D71">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H71">
-        <v>-77.84999999999999</v>
+        <v>-106.11</v>
       </c>
       <c r="I71">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2942,25 +2987,25 @@
         <v>12.93</v>
       </c>
       <c r="D72">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H72">
-        <v>-75.66</v>
+        <v>-106.11</v>
       </c>
       <c r="I72">
-        <v>-0.35</v>
+        <v>0.31</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2974,25 +3019,25 @@
         <v>12.91</v>
       </c>
       <c r="D73">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H73">
-        <v>-72.17</v>
+        <v>-106.11</v>
       </c>
       <c r="I73">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3003,28 +3048,28 @@
         <v>83</v>
       </c>
       <c r="C74">
-        <v>12.9</v>
+        <v>12.89</v>
       </c>
       <c r="D74">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H74">
-        <v>-72.09999999999999</v>
+        <v>-106.11</v>
       </c>
       <c r="I74">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3035,28 +3080,28 @@
         <v>84</v>
       </c>
       <c r="C75">
-        <v>12.88</v>
+        <v>12.87</v>
       </c>
       <c r="D75">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H75">
-        <v>-73.5</v>
+        <v>-106.11</v>
       </c>
       <c r="I75">
-        <v>-191.85</v>
+        <v>-187.56</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3067,28 +3112,28 @@
         <v>85</v>
       </c>
       <c r="C76">
-        <v>12.86</v>
+        <v>12.84</v>
       </c>
       <c r="D76">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H76">
-        <v>-71.29000000000001</v>
+        <v>-106.11</v>
       </c>
       <c r="I76">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3099,28 +3144,28 @@
         <v>86</v>
       </c>
       <c r="C77">
-        <v>12.84</v>
+        <v>12.82</v>
       </c>
       <c r="D77">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H77">
-        <v>-70.22</v>
+        <v>-106.11</v>
       </c>
       <c r="I77">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3131,28 +3176,28 @@
         <v>87</v>
       </c>
       <c r="C78">
-        <v>12.82</v>
+        <v>12.8</v>
       </c>
       <c r="D78">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H78">
-        <v>-69.36</v>
+        <v>-106.11</v>
       </c>
       <c r="I78">
-        <v>-0.04</v>
+        <v>-0.11</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3163,28 +3208,28 @@
         <v>88</v>
       </c>
       <c r="C79">
-        <v>12.8</v>
+        <v>12.77</v>
       </c>
       <c r="D79">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H79">
-        <v>-68.12</v>
+        <v>-106.11</v>
       </c>
       <c r="I79">
-        <v>-0.13</v>
+        <v>0.04</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3195,28 +3240,28 @@
         <v>89</v>
       </c>
       <c r="C80">
-        <v>12.77</v>
+        <v>12.74</v>
       </c>
       <c r="D80">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-39.73</v>
+        <v>60</v>
       </c>
       <c r="H80">
-        <v>-66.43000000000001</v>
+        <v>-106.11</v>
       </c>
       <c r="I80">
-        <v>-0.02</v>
+        <v>0.14</v>
       </c>
       <c r="J80">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L80" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3227,28 +3272,28 @@
         <v>90</v>
       </c>
       <c r="C81">
-        <v>12.86</v>
+        <v>12.8</v>
       </c>
       <c r="D81">
-        <v>6.62</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-28.98</v>
+        <v>60</v>
       </c>
       <c r="H81">
-        <v>-53.85</v>
+        <v>-106.11</v>
       </c>
       <c r="I81">
-        <v>0.16</v>
+        <v>-0.05</v>
       </c>
       <c r="J81">
-        <v>19.2</v>
+        <v>15.31</v>
       </c>
       <c r="L81" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3259,28 +3304,28 @@
         <v>91</v>
       </c>
       <c r="C82">
-        <v>13.43</v>
+        <v>13.31</v>
       </c>
       <c r="D82">
-        <v>13.69</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>-14.42</v>
+        <v>60</v>
       </c>
       <c r="H82">
-        <v>-36.36</v>
+        <v>-106.11</v>
       </c>
       <c r="I82">
-        <v>0.31</v>
+        <v>1.45</v>
       </c>
       <c r="J82">
-        <v>61.48</v>
+        <v>49</v>
       </c>
       <c r="L82" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3291,28 +3336,284 @@
         <v>92</v>
       </c>
       <c r="C83">
-        <v>13.55</v>
+        <v>13.54</v>
       </c>
       <c r="D83">
-        <v>22.39</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>-3.87</v>
+        <v>60</v>
       </c>
       <c r="H83">
-        <v>-22.64</v>
+        <v>-106.11</v>
       </c>
       <c r="I83">
+        <v>0.36</v>
+      </c>
+      <c r="J83">
+        <v>111.11</v>
+      </c>
+      <c r="L83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84">
+        <v>13.56</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>60</v>
+      </c>
+      <c r="H84">
+        <v>-106.11</v>
+      </c>
+      <c r="I84">
+        <v>-0.09</v>
+      </c>
+      <c r="J84">
+        <v>137.57</v>
+      </c>
+      <c r="L84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85">
+        <v>13.57</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>60</v>
+      </c>
+      <c r="H85">
+        <v>-106.11</v>
+      </c>
+      <c r="I85">
+        <v>-0.04</v>
+      </c>
+      <c r="J85">
+        <v>427.09</v>
+      </c>
+      <c r="L85" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86">
+        <v>13.59</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>60</v>
+      </c>
+      <c r="H86">
+        <v>-106.11</v>
+      </c>
+      <c r="I86">
+        <v>0.02</v>
+      </c>
+      <c r="J86">
+        <v>899.61</v>
+      </c>
+      <c r="L86" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87">
+        <v>13.61</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>60</v>
+      </c>
+      <c r="H87">
+        <v>-106.11</v>
+      </c>
+      <c r="I87">
+        <v>0.02</v>
+      </c>
+      <c r="J87">
+        <v>902.58</v>
+      </c>
+      <c r="L87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88">
+        <v>13.62</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>60</v>
+      </c>
+      <c r="H88">
+        <v>-106.11</v>
+      </c>
+      <c r="I88">
+        <v>-0.17</v>
+      </c>
+      <c r="J88">
+        <v>821.96</v>
+      </c>
+      <c r="L88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89">
+        <v>13.64</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>60</v>
+      </c>
+      <c r="H89">
+        <v>-106.11</v>
+      </c>
+      <c r="I89">
         <v>-0.13</v>
       </c>
-      <c r="J83">
-        <v>146.89</v>
-      </c>
-      <c r="L83" t="s">
-        <v>93</v>
+      <c r="J89">
+        <v>670.12</v>
+      </c>
+      <c r="L89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90">
+        <v>13.63</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>60</v>
+      </c>
+      <c r="H90">
+        <v>-106.11</v>
+      </c>
+      <c r="I90">
+        <v>0.36</v>
+      </c>
+      <c r="J90">
+        <v>440.49</v>
+      </c>
+      <c r="L90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91">
+        <v>13.62</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>60</v>
+      </c>
+      <c r="H91">
+        <v>-106.11</v>
+      </c>
+      <c r="I91">
+        <v>0.13</v>
+      </c>
+      <c r="J91">
+        <v>187.92</v>
+      </c>
+      <c r="L91" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
   <si>
     <t>Fecha</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>11/13/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:00:00 PM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -677,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -779,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -811,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -843,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -875,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -907,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -939,7 +942,7 @@
         <v>0.17</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -971,7 +974,7 @@
         <v>31.62</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1003,7 +1006,7 @@
         <v>68.43000000000001</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1035,7 +1038,7 @@
         <v>141.18</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1067,7 +1070,7 @@
         <v>212.41</v>
       </c>
       <c r="L12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1099,7 +1102,7 @@
         <v>334.81</v>
       </c>
       <c r="L13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1131,7 +1134,7 @@
         <v>661.99</v>
       </c>
       <c r="L14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1163,7 +1166,7 @@
         <v>416.89</v>
       </c>
       <c r="L15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1195,7 +1198,7 @@
         <v>204.17</v>
       </c>
       <c r="L16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1227,7 +1230,7 @@
         <v>488.86</v>
       </c>
       <c r="L17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1259,7 +1262,7 @@
         <v>331.86</v>
       </c>
       <c r="L18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1291,7 +1294,7 @@
         <v>75.70999999999999</v>
       </c>
       <c r="L19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1323,7 +1326,7 @@
         <v>12.11</v>
       </c>
       <c r="L20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1355,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1387,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1419,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1451,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1547,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1579,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1611,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1643,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1675,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1707,7 +1710,7 @@
         <v>0.08</v>
       </c>
       <c r="L32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1739,7 +1742,7 @@
         <v>18.57</v>
       </c>
       <c r="L33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1771,7 +1774,7 @@
         <v>54.67</v>
       </c>
       <c r="L34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1803,7 +1806,7 @@
         <v>127.74</v>
       </c>
       <c r="L35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1835,7 +1838,7 @@
         <v>147.94</v>
       </c>
       <c r="L36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1867,7 +1870,7 @@
         <v>436.52</v>
       </c>
       <c r="L37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1899,7 +1902,7 @@
         <v>927.0700000000001</v>
       </c>
       <c r="L38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1931,7 +1934,7 @@
         <v>919.46</v>
       </c>
       <c r="L39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1963,7 +1966,7 @@
         <v>799.42</v>
       </c>
       <c r="L40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1995,7 +1998,7 @@
         <v>640.1</v>
       </c>
       <c r="L41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2027,7 +2030,7 @@
         <v>416.61</v>
       </c>
       <c r="L42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2059,7 +2062,7 @@
         <v>120.87</v>
       </c>
       <c r="L43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2091,7 +2094,7 @@
         <v>4.38</v>
       </c>
       <c r="L44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2123,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2155,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2187,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2219,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2251,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2283,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2315,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2347,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2379,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2411,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2443,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2481,7 +2484,7 @@
         <v>1.21</v>
       </c>
       <c r="L56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2519,7 +2522,7 @@
         <v>1.18</v>
       </c>
       <c r="L57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2557,7 +2560,7 @@
         <v>1.27</v>
       </c>
       <c r="L58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2589,7 +2592,7 @@
         <v>121.8</v>
       </c>
       <c r="L59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2621,7 +2624,7 @@
         <v>176.53</v>
       </c>
       <c r="L60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2653,7 +2656,7 @@
         <v>438.23</v>
       </c>
       <c r="L61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2685,7 +2688,7 @@
         <v>924.99</v>
       </c>
       <c r="L62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2717,7 +2720,7 @@
         <v>915.79</v>
       </c>
       <c r="L63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2749,7 +2752,7 @@
         <v>840</v>
       </c>
       <c r="L64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2781,7 +2784,7 @@
         <v>683.16</v>
       </c>
       <c r="L65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2813,7 +2816,7 @@
         <v>457.65</v>
       </c>
       <c r="L66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2845,7 +2848,7 @@
         <v>197.05</v>
       </c>
       <c r="L67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2877,7 +2880,7 @@
         <v>10.91</v>
       </c>
       <c r="L68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2909,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2941,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2973,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3005,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3037,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3069,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3101,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3133,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3165,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3197,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3229,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3261,7 +3264,7 @@
         <v>0.03</v>
       </c>
       <c r="L80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3293,7 +3296,7 @@
         <v>15.31</v>
       </c>
       <c r="L81" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3325,7 +3328,7 @@
         <v>49</v>
       </c>
       <c r="L82" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3357,7 +3360,7 @@
         <v>111.11</v>
       </c>
       <c r="L83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3389,7 +3392,7 @@
         <v>137.57</v>
       </c>
       <c r="L84" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3421,7 +3424,7 @@
         <v>427.09</v>
       </c>
       <c r="L85" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3453,7 +3456,7 @@
         <v>899.61</v>
       </c>
       <c r="L86" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3485,7 +3488,7 @@
         <v>902.58</v>
       </c>
       <c r="L87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3517,7 +3520,7 @@
         <v>821.96</v>
       </c>
       <c r="L88" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3549,7 +3552,7 @@
         <v>670.12</v>
       </c>
       <c r="L89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3581,7 +3584,7 @@
         <v>440.49</v>
       </c>
       <c r="L90" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -3613,7 +3616,39 @@
         <v>187.92</v>
       </c>
       <c r="L91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>101</v>
+      </c>
+      <c r="C92">
+        <v>13.19</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>60</v>
+      </c>
+      <c r="H92">
+        <v>-106.11</v>
+      </c>
+      <c r="I92">
+        <v>0.19</v>
+      </c>
+      <c r="J92">
+        <v>11.1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
   <si>
     <t>Fecha</t>
   </si>
@@ -49,277 +49,223 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/10/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 6:00:00 PM</t>
+    <t>11/14/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/17/2020 12:00:00 AM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -680,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,10 +675,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>12.91</v>
+        <v>12.89</v>
       </c>
       <c r="D2">
-        <v>21.75</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -741,16 +687,16 @@
         <v>60</v>
       </c>
       <c r="H2">
-        <v>31.16</v>
+        <v>-106.11</v>
       </c>
       <c r="I2">
-        <v>-0.03</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -761,28 +707,28 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>12.89</v>
+        <v>12.87</v>
       </c>
       <c r="D3">
-        <v>20.79</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>30.39</v>
+        <v>-106.11</v>
       </c>
       <c r="I3">
-        <v>-190.26</v>
+        <v>-185</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -793,10 +739,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>12.87</v>
+        <v>12.86</v>
       </c>
       <c r="D4">
-        <v>20.66</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -805,16 +751,16 @@
         <v>60</v>
       </c>
       <c r="H4">
-        <v>30.28</v>
+        <v>-106.11</v>
       </c>
       <c r="I4">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -825,10 +771,10 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>12.85</v>
+        <v>12.83</v>
       </c>
       <c r="D5">
-        <v>20.88</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -837,16 +783,16 @@
         <v>60</v>
       </c>
       <c r="H5">
-        <v>30.46</v>
+        <v>-106.11</v>
       </c>
       <c r="I5">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -857,10 +803,10 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>12.83</v>
+        <v>12.81</v>
       </c>
       <c r="D6">
-        <v>20.35</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,16 +815,16 @@
         <v>60</v>
       </c>
       <c r="H6">
-        <v>30.02</v>
+        <v>-106.11</v>
       </c>
       <c r="I6">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -889,10 +835,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>12.8</v>
+        <v>12.79</v>
       </c>
       <c r="D7">
-        <v>19.69</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,16 +847,16 @@
         <v>60</v>
       </c>
       <c r="H7">
-        <v>29.46</v>
+        <v>-106.11</v>
       </c>
       <c r="I7">
-        <v>-0.41</v>
+        <v>0.18</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -921,10 +867,10 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>12.78</v>
+        <v>12.76</v>
       </c>
       <c r="D8">
-        <v>18.86</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,16 +879,16 @@
         <v>60</v>
       </c>
       <c r="H8">
-        <v>28.73</v>
+        <v>-106.11</v>
       </c>
       <c r="I8">
-        <v>-0.02</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J8">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -953,10 +899,10 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>13.01</v>
+        <v>12.89</v>
       </c>
       <c r="D9">
-        <v>18.18</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,16 +911,16 @@
         <v>60</v>
       </c>
       <c r="H9">
-        <v>28.12</v>
+        <v>-106.11</v>
       </c>
       <c r="I9">
-        <v>0.03</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J9">
-        <v>31.62</v>
+        <v>20.63</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -985,10 +931,10 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>13.49</v>
+        <v>13.39</v>
       </c>
       <c r="D10">
-        <v>18.55</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,16 +943,16 @@
         <v>60</v>
       </c>
       <c r="H10">
-        <v>28.46</v>
+        <v>-106.11</v>
       </c>
       <c r="I10">
-        <v>-1.52</v>
+        <v>0.44</v>
       </c>
       <c r="J10">
-        <v>68.43000000000001</v>
+        <v>60.64</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1017,10 +963,10 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>13.56</v>
+        <v>13.55</v>
       </c>
       <c r="D11">
-        <v>18.07</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,16 +975,16 @@
         <v>60</v>
       </c>
       <c r="H11">
-        <v>28.01</v>
+        <v>-106.11</v>
       </c>
       <c r="I11">
-        <v>-1.8</v>
+        <v>-0.09</v>
       </c>
       <c r="J11">
-        <v>141.18</v>
+        <v>109.96</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1049,10 +995,10 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>13.57</v>
+        <v>13.56</v>
       </c>
       <c r="D12">
-        <v>17.92</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,16 +1007,16 @@
         <v>60</v>
       </c>
       <c r="H12">
-        <v>27.88</v>
+        <v>-106.11</v>
       </c>
       <c r="I12">
-        <v>-0.21</v>
+        <v>0.25</v>
       </c>
       <c r="J12">
-        <v>212.41</v>
+        <v>115.63</v>
       </c>
       <c r="L12" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1081,10 +1027,10 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="D13">
-        <v>18.21</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1093,16 +1039,16 @@
         <v>60</v>
       </c>
       <c r="H13">
-        <v>28.14</v>
+        <v>-106.11</v>
       </c>
       <c r="I13">
-        <v>-0.25</v>
+        <v>-0.09</v>
       </c>
       <c r="J13">
-        <v>334.81</v>
+        <v>427.93</v>
       </c>
       <c r="L13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1116,7 +1062,7 @@
         <v>13.59</v>
       </c>
       <c r="D14">
-        <v>19.14</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1125,16 +1071,16 @@
         <v>60</v>
       </c>
       <c r="H14">
-        <v>28.98</v>
+        <v>-106.11</v>
       </c>
       <c r="I14">
-        <v>-0.18</v>
+        <v>0.05</v>
       </c>
       <c r="J14">
-        <v>661.99</v>
+        <v>906.83</v>
       </c>
       <c r="L14" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1145,10 +1091,10 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D15">
-        <v>13.44</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1157,16 +1103,16 @@
         <v>60</v>
       </c>
       <c r="H15">
-        <v>22.71</v>
+        <v>-106.11</v>
       </c>
       <c r="I15">
-        <v>-0.17</v>
+        <v>0.1</v>
       </c>
       <c r="J15">
-        <v>416.89</v>
+        <v>887.95</v>
       </c>
       <c r="L15" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1177,10 +1123,10 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>13.6</v>
+        <v>13.63</v>
       </c>
       <c r="D16">
-        <v>9.73</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1189,16 +1135,16 @@
         <v>60</v>
       </c>
       <c r="H16">
-        <v>17.96</v>
+        <v>-106.11</v>
       </c>
       <c r="I16">
-        <v>-0.03</v>
+        <v>0.18</v>
       </c>
       <c r="J16">
-        <v>204.17</v>
+        <v>803.23</v>
       </c>
       <c r="L16" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1209,28 +1155,28 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>13.61</v>
+        <v>13.63</v>
       </c>
       <c r="D17">
-        <v>8.550000000000001</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.59</v>
+        <v>60</v>
       </c>
       <c r="H17">
-        <v>-22.26</v>
+        <v>-106.11</v>
       </c>
       <c r="I17">
-        <v>0.04</v>
+        <v>0.21</v>
       </c>
       <c r="J17">
-        <v>488.86</v>
+        <v>652.16</v>
       </c>
       <c r="L17" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1241,28 +1187,28 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>13.61</v>
+        <v>13.64</v>
       </c>
       <c r="D18">
-        <v>5.28</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H18">
-        <v>-63.44</v>
+        <v>-106.11</v>
       </c>
       <c r="I18">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
       <c r="J18">
-        <v>331.86</v>
+        <v>436.77</v>
       </c>
       <c r="L18" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1273,28 +1219,28 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="D19">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H19">
-        <v>-65.63</v>
+        <v>-106.11</v>
       </c>
       <c r="I19">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="J19">
-        <v>75.70999999999999</v>
+        <v>181.78</v>
       </c>
       <c r="L19" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1305,28 +1251,28 @@
         <v>29</v>
       </c>
       <c r="C20">
-        <v>13.17</v>
+        <v>13.05</v>
       </c>
       <c r="D20">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H20">
-        <v>-66.73999999999999</v>
+        <v>-106.11</v>
       </c>
       <c r="I20">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="J20">
-        <v>12.11</v>
+        <v>3.18</v>
       </c>
       <c r="L20" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1337,28 +1283,28 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>13.01</v>
+        <v>12.99</v>
       </c>
       <c r="D21">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H21">
-        <v>-67.62</v>
+        <v>-106.11</v>
       </c>
       <c r="I21">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1372,25 +1318,25 @@
         <v>12.97</v>
       </c>
       <c r="D22">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H22">
-        <v>-67.83</v>
+        <v>-106.11</v>
       </c>
       <c r="I22">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1401,28 +1347,28 @@
         <v>32</v>
       </c>
       <c r="C23">
-        <v>12.96</v>
+        <v>12.94</v>
       </c>
       <c r="D23">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H23">
-        <v>-67.45</v>
+        <v>-106.11</v>
       </c>
       <c r="I23">
-        <v>-0.03</v>
+        <v>0.03</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1433,28 +1379,28 @@
         <v>33</v>
       </c>
       <c r="C24">
-        <v>12.94</v>
+        <v>12.92</v>
       </c>
       <c r="D24">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H24">
-        <v>-66.75</v>
+        <v>-106.11</v>
       </c>
       <c r="I24">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1465,28 +1411,28 @@
         <v>34</v>
       </c>
       <c r="C25">
-        <v>12.92</v>
+        <v>12.9</v>
       </c>
       <c r="D25">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H25">
-        <v>-67.09999999999999</v>
+        <v>-106.11</v>
       </c>
       <c r="I25">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1497,28 +1443,28 @@
         <v>35</v>
       </c>
       <c r="C26">
-        <v>12.91</v>
+        <v>12.89</v>
       </c>
       <c r="D26">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H26">
-        <v>-67.56</v>
+        <v>-106.11</v>
       </c>
       <c r="I26">
-        <v>0.09</v>
+        <v>-0.05</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1529,28 +1475,28 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>12.89</v>
+        <v>12.87</v>
       </c>
       <c r="D27">
-        <v>4.89</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-39.95</v>
+        <v>60</v>
       </c>
       <c r="H27">
-        <v>-64.29000000000001</v>
+        <v>-106.11</v>
       </c>
       <c r="I27">
-        <v>-192.62</v>
+        <v>-181.88</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1561,28 +1507,28 @@
         <v>37</v>
       </c>
       <c r="C28">
-        <v>12.87</v>
+        <v>12.85</v>
       </c>
       <c r="D28">
-        <v>3.54</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-39.79</v>
+        <v>60</v>
       </c>
       <c r="H28">
-        <v>-66.36</v>
+        <v>-106.11</v>
       </c>
       <c r="I28">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1593,28 +1539,28 @@
         <v>38</v>
       </c>
       <c r="C29">
-        <v>12.85</v>
+        <v>12.83</v>
       </c>
       <c r="D29">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-39.24</v>
+        <v>60</v>
       </c>
       <c r="H29">
-        <v>-62.58</v>
+        <v>-106.11</v>
       </c>
       <c r="I29">
-        <v>-0.04</v>
+        <v>0.09</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1625,28 +1571,28 @@
         <v>39</v>
       </c>
       <c r="C30">
-        <v>12.82</v>
+        <v>12.8</v>
       </c>
       <c r="D30">
-        <v>3.89</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H30">
-        <v>-65.56999999999999</v>
+        <v>-106.11</v>
       </c>
       <c r="I30">
-        <v>-0.17</v>
+        <v>0.05</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1657,28 +1603,28 @@
         <v>40</v>
       </c>
       <c r="C31">
-        <v>12.79</v>
+        <v>12.77</v>
       </c>
       <c r="D31">
-        <v>2.99</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H31">
-        <v>-67.09</v>
+        <v>-106.11</v>
       </c>
       <c r="I31">
-        <v>0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1689,28 +1635,28 @@
         <v>41</v>
       </c>
       <c r="C32">
-        <v>12.77</v>
+        <v>12.75</v>
       </c>
       <c r="D32">
-        <v>3.61</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H32">
-        <v>-66.27</v>
+        <v>-106.11</v>
       </c>
       <c r="I32">
-        <v>0.13</v>
+        <v>-0.09</v>
       </c>
       <c r="J32">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="L32" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1721,28 +1667,28 @@
         <v>42</v>
       </c>
       <c r="C33">
-        <v>12.86</v>
+        <v>12.92</v>
       </c>
       <c r="D33">
-        <v>4.12</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H33">
-        <v>-65.90000000000001</v>
+        <v>-106.11</v>
       </c>
       <c r="I33">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J33">
-        <v>18.57</v>
+        <v>24.95</v>
       </c>
       <c r="L33" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1753,28 +1699,28 @@
         <v>43</v>
       </c>
       <c r="C34">
-        <v>13.32</v>
+        <v>13.48</v>
       </c>
       <c r="D34">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H34">
-        <v>-66.56999999999999</v>
+        <v>-106.11</v>
       </c>
       <c r="I34">
-        <v>-0.06</v>
+        <v>-0.16</v>
       </c>
       <c r="J34">
-        <v>54.67</v>
+        <v>69.48</v>
       </c>
       <c r="L34" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1785,28 +1731,28 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>13.55</v>
+        <v>13.56</v>
       </c>
       <c r="D35">
-        <v>14.05</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-40</v>
+        <v>60</v>
       </c>
       <c r="H35">
-        <v>-56.59</v>
+        <v>-106.11</v>
       </c>
       <c r="I35">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>127.74</v>
+        <v>164.82</v>
       </c>
       <c r="L35" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1817,28 +1763,28 @@
         <v>45</v>
       </c>
       <c r="C36">
-        <v>13.56</v>
+        <v>13.57</v>
       </c>
       <c r="D36">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-10.92</v>
+        <v>60</v>
       </c>
       <c r="H36">
-        <v>-42.41</v>
+        <v>-106.11</v>
       </c>
       <c r="I36">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="J36">
-        <v>147.94</v>
+        <v>162.27</v>
       </c>
       <c r="L36" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1849,28 +1795,28 @@
         <v>46</v>
       </c>
       <c r="C37">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="D37">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>59.36</v>
+        <v>60</v>
       </c>
       <c r="H37">
-        <v>-7.95</v>
+        <v>-106.11</v>
       </c>
       <c r="I37">
-        <v>0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="J37">
-        <v>436.52</v>
+        <v>447.74</v>
       </c>
       <c r="L37" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1884,25 +1830,25 @@
         <v>13.6</v>
       </c>
       <c r="D38">
-        <v>17.76</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-30.21</v>
+        <v>60</v>
       </c>
       <c r="H38">
-        <v>-48.17</v>
+        <v>-106.11</v>
       </c>
       <c r="I38">
-        <v>-0.14</v>
+        <v>-0.05</v>
       </c>
       <c r="J38">
-        <v>927.0700000000001</v>
+        <v>866.41</v>
       </c>
       <c r="L38" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1913,28 +1859,28 @@
         <v>48</v>
       </c>
       <c r="C39">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D39">
-        <v>16.92</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-6.3</v>
+        <v>60</v>
       </c>
       <c r="H39">
-        <v>-31.74</v>
+        <v>-106.11</v>
       </c>
       <c r="I39">
-        <v>-0.07000000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="J39">
-        <v>919.46</v>
+        <v>753.65</v>
       </c>
       <c r="L39" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1945,28 +1891,28 @@
         <v>49</v>
       </c>
       <c r="C40">
-        <v>13.63</v>
+        <v>13.62</v>
       </c>
       <c r="D40">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-17.4</v>
+        <v>60</v>
       </c>
       <c r="H40">
-        <v>-38.04</v>
+        <v>-106.11</v>
       </c>
       <c r="I40">
-        <v>-0.12</v>
+        <v>0.14</v>
       </c>
       <c r="J40">
-        <v>799.42</v>
+        <v>744.91</v>
       </c>
       <c r="L40" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1980,25 +1926,25 @@
         <v>13.64</v>
       </c>
       <c r="D41">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>50.56</v>
+        <v>60</v>
       </c>
       <c r="H41">
-        <v>-59.41</v>
+        <v>-106.11</v>
       </c>
       <c r="I41">
-        <v>0.52</v>
+        <v>-0.32</v>
       </c>
       <c r="J41">
-        <v>640.1</v>
+        <v>641.3099999999999</v>
       </c>
       <c r="L41" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2024,13 +1970,13 @@
         <v>-106.11</v>
       </c>
       <c r="I42">
-        <v>0.73</v>
+        <v>0.31</v>
       </c>
       <c r="J42">
-        <v>416.61</v>
+        <v>415.53</v>
       </c>
       <c r="L42" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2056,13 +2002,13 @@
         <v>-106.11</v>
       </c>
       <c r="I43">
-        <v>-0.02</v>
+        <v>0.7</v>
       </c>
       <c r="J43">
-        <v>120.87</v>
+        <v>179.66</v>
       </c>
       <c r="L43" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2073,7 +2019,7 @@
         <v>53</v>
       </c>
       <c r="C44">
-        <v>13.08</v>
+        <v>13.2</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2085,16 +2031,16 @@
         <v>60</v>
       </c>
       <c r="H44">
-        <v>-106.11</v>
+        <v>-106.09</v>
       </c>
       <c r="I44">
         <v>0.12</v>
       </c>
       <c r="J44">
-        <v>4.38</v>
+        <v>11.28</v>
       </c>
       <c r="L44" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2120,13 +2066,13 @@
         <v>-106.11</v>
       </c>
       <c r="I45">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2137,7 +2083,7 @@
         <v>55</v>
       </c>
       <c r="C46">
-        <v>12.98</v>
+        <v>12.97</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2149,16 +2095,16 @@
         <v>60</v>
       </c>
       <c r="H46">
-        <v>-106.11</v>
+        <v>-106.09</v>
       </c>
       <c r="I46">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2184,13 +2130,13 @@
         <v>-106.11</v>
       </c>
       <c r="I47">
-        <v>-0.04</v>
+        <v>0.15</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2216,13 +2162,13 @@
         <v>-106.11</v>
       </c>
       <c r="I48">
-        <v>0.44</v>
+        <v>0.11</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2248,13 +2194,13 @@
         <v>-106.11</v>
       </c>
       <c r="I49">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2280,13 +2226,13 @@
         <v>-106.11</v>
       </c>
       <c r="I50">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2312,13 +2258,13 @@
         <v>-106.11</v>
       </c>
       <c r="I51">
-        <v>-190.51</v>
+        <v>-179.82</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2329,7 +2275,7 @@
         <v>61</v>
       </c>
       <c r="C52">
-        <v>12.85</v>
+        <v>12.86</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2344,13 +2290,13 @@
         <v>-106.11</v>
       </c>
       <c r="I52">
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2361,7 +2307,7 @@
         <v>62</v>
       </c>
       <c r="C53">
-        <v>12.83</v>
+        <v>12.84</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2376,13 +2322,13 @@
         <v>-106.11</v>
       </c>
       <c r="I53">
-        <v>-0.09</v>
+        <v>-0.05</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2393,7 +2339,7 @@
         <v>63</v>
       </c>
       <c r="C54">
-        <v>12.81</v>
+        <v>12.82</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2408,13 +2354,13 @@
         <v>-106.11</v>
       </c>
       <c r="I54">
-        <v>0.14</v>
+        <v>-0.22</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2425,7 +2371,7 @@
         <v>64</v>
       </c>
       <c r="C55">
-        <v>12.78</v>
+        <v>12.8</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2440,13 +2386,13 @@
         <v>-106.11</v>
       </c>
       <c r="I55">
-        <v>-0.15</v>
+        <v>-0.03</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2468,23 +2414,17 @@
       <c r="F56">
         <v>60</v>
       </c>
-      <c r="G56">
-        <v>129.36</v>
-      </c>
       <c r="H56">
         <v>-106.11</v>
       </c>
       <c r="I56">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="J56">
-        <v>0.08</v>
-      </c>
-      <c r="K56">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2495,7 +2435,7 @@
         <v>66</v>
       </c>
       <c r="C57">
-        <v>12.9</v>
+        <v>12.81</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2506,23 +2446,17 @@
       <c r="F57">
         <v>60</v>
       </c>
-      <c r="G57">
-        <v>133.46</v>
-      </c>
       <c r="H57">
         <v>-106.11</v>
       </c>
       <c r="I57">
-        <v>0.08</v>
+        <v>-0.08</v>
       </c>
       <c r="J57">
-        <v>17.91</v>
-      </c>
-      <c r="K57">
-        <v>1.18</v>
+        <v>13.21</v>
       </c>
       <c r="L57" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2533,7 +2467,7 @@
         <v>67</v>
       </c>
       <c r="C58">
-        <v>13.45</v>
+        <v>13.05</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2544,23 +2478,17 @@
       <c r="F58">
         <v>60</v>
       </c>
-      <c r="G58">
-        <v>115.42</v>
-      </c>
       <c r="H58">
         <v>-106.11</v>
       </c>
       <c r="I58">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="J58">
-        <v>91.62</v>
-      </c>
-      <c r="K58">
-        <v>1.27</v>
+        <v>30.82</v>
       </c>
       <c r="L58" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2571,7 +2499,7 @@
         <v>68</v>
       </c>
       <c r="C59">
-        <v>13.56</v>
+        <v>13.38</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2586,13 +2514,13 @@
         <v>-106.11</v>
       </c>
       <c r="I59">
-        <v>-0.1</v>
+        <v>0.32</v>
       </c>
       <c r="J59">
-        <v>121.8</v>
+        <v>56.21</v>
       </c>
       <c r="L59" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2603,7 +2531,7 @@
         <v>69</v>
       </c>
       <c r="C60">
-        <v>13.57</v>
+        <v>13.52</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2618,13 +2546,13 @@
         <v>-106.11</v>
       </c>
       <c r="I60">
-        <v>0.23</v>
+        <v>-0.31</v>
       </c>
       <c r="J60">
-        <v>176.53</v>
+        <v>115.78</v>
       </c>
       <c r="L60" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2650,13 +2578,13 @@
         <v>-106.11</v>
       </c>
       <c r="I61">
-        <v>-0.11</v>
+        <v>0.29</v>
       </c>
       <c r="J61">
-        <v>438.23</v>
+        <v>365.57</v>
       </c>
       <c r="L61" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2682,13 +2610,13 @@
         <v>-106.11</v>
       </c>
       <c r="I62">
-        <v>0.24</v>
+        <v>-0.01</v>
       </c>
       <c r="J62">
-        <v>924.99</v>
+        <v>528.48</v>
       </c>
       <c r="L62" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2699,7 +2627,7 @@
         <v>72</v>
       </c>
       <c r="C63">
-        <v>13.61</v>
+        <v>13.59</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2714,13 +2642,13 @@
         <v>-106.11</v>
       </c>
       <c r="I63">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
       <c r="J63">
-        <v>915.79</v>
+        <v>205.97</v>
       </c>
       <c r="L63" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2731,7 +2659,7 @@
         <v>73</v>
       </c>
       <c r="C64">
-        <v>13.63</v>
+        <v>13.6</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2742,17 +2670,23 @@
       <c r="F64">
         <v>60</v>
       </c>
+      <c r="G64">
+        <v>226.15</v>
+      </c>
       <c r="H64">
         <v>-106.11</v>
       </c>
       <c r="I64">
-        <v>0.23</v>
+        <v>0.76</v>
       </c>
       <c r="J64">
-        <v>840</v>
+        <v>456.8</v>
+      </c>
+      <c r="K64">
+        <v>3.74</v>
       </c>
       <c r="L64" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2763,7 +2697,7 @@
         <v>74</v>
       </c>
       <c r="C65">
-        <v>13.64</v>
+        <v>13.62</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2774,17 +2708,23 @@
       <c r="F65">
         <v>60</v>
       </c>
+      <c r="G65">
+        <v>324.48</v>
+      </c>
       <c r="H65">
         <v>-106.11</v>
       </c>
       <c r="I65">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>683.16</v>
+        <v>505.19</v>
+      </c>
+      <c r="K65">
+        <v>4.38</v>
       </c>
       <c r="L65" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2795,7 +2735,7 @@
         <v>75</v>
       </c>
       <c r="C66">
-        <v>13.64</v>
+        <v>13.61</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2810,13 +2750,13 @@
         <v>-106.11</v>
       </c>
       <c r="I66">
-        <v>0.39</v>
+        <v>-0.11</v>
       </c>
       <c r="J66">
-        <v>457.65</v>
+        <v>265.33</v>
       </c>
       <c r="L66" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2827,7 +2767,7 @@
         <v>76</v>
       </c>
       <c r="C67">
-        <v>13.62</v>
+        <v>13.45</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2839,16 +2779,16 @@
         <v>60</v>
       </c>
       <c r="H67">
-        <v>-106.11</v>
+        <v>-106.03</v>
       </c>
       <c r="I67">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="J67">
-        <v>197.05</v>
+        <v>43.81</v>
       </c>
       <c r="L67" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2859,7 +2799,7 @@
         <v>77</v>
       </c>
       <c r="C68">
-        <v>13.15</v>
+        <v>13.03</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2871,16 +2811,16 @@
         <v>60</v>
       </c>
       <c r="H68">
-        <v>-106.11</v>
+        <v>-105.93</v>
       </c>
       <c r="I68">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="J68">
-        <v>10.91</v>
+        <v>0.57</v>
       </c>
       <c r="L68" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2903,16 +2843,16 @@
         <v>60</v>
       </c>
       <c r="H69">
-        <v>-106.11</v>
+        <v>-105.99</v>
       </c>
       <c r="I69">
-        <v>0.12</v>
+        <v>-0.4</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2935,16 +2875,16 @@
         <v>60</v>
       </c>
       <c r="H70">
-        <v>-106.11</v>
+        <v>-106.06</v>
       </c>
       <c r="I70">
-        <v>0.18</v>
+        <v>-0.16</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2970,13 +2910,13 @@
         <v>-106.11</v>
       </c>
       <c r="I71">
-        <v>0.28</v>
+        <v>0.76</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2993,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F72">
         <v>60</v>
@@ -3002,13 +2942,13 @@
         <v>-106.11</v>
       </c>
       <c r="I72">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3025,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F73">
         <v>60</v>
@@ -3034,13 +2974,13 @@
         <v>-106.11</v>
       </c>
       <c r="I73">
-        <v>0.16</v>
+        <v>-0.79</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3066,589 +3006,13 @@
         <v>-106.11</v>
       </c>
       <c r="I74">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75">
-        <v>12.87</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>60</v>
-      </c>
-      <c r="H75">
-        <v>-106.11</v>
-      </c>
-      <c r="I75">
-        <v>-187.56</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="L75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76">
-        <v>12.84</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>60</v>
-      </c>
-      <c r="H76">
-        <v>-106.11</v>
-      </c>
-      <c r="I76">
-        <v>0.02</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="L76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77">
-        <v>12.82</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>60</v>
-      </c>
-      <c r="H77">
-        <v>-106.11</v>
-      </c>
-      <c r="I77">
-        <v>-0.02</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="L77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78">
-        <v>12.8</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>60</v>
-      </c>
-      <c r="H78">
-        <v>-106.11</v>
-      </c>
-      <c r="I78">
-        <v>-0.11</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="L78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79">
-        <v>12.77</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>60</v>
-      </c>
-      <c r="H79">
-        <v>-106.11</v>
-      </c>
-      <c r="I79">
-        <v>0.04</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="L79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80">
-        <v>12.74</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>60</v>
-      </c>
-      <c r="H80">
-        <v>-106.11</v>
-      </c>
-      <c r="I80">
-        <v>0.14</v>
-      </c>
-      <c r="J80">
-        <v>0.03</v>
-      </c>
-      <c r="L80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C81">
-        <v>12.8</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>60</v>
-      </c>
-      <c r="H81">
-        <v>-106.11</v>
-      </c>
-      <c r="I81">
-        <v>-0.05</v>
-      </c>
-      <c r="J81">
-        <v>15.31</v>
-      </c>
-      <c r="L81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82">
-        <v>13.31</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>60</v>
-      </c>
-      <c r="H82">
-        <v>-106.11</v>
-      </c>
-      <c r="I82">
-        <v>1.45</v>
-      </c>
-      <c r="J82">
-        <v>49</v>
-      </c>
-      <c r="L82" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83">
-        <v>13.54</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>60</v>
-      </c>
-      <c r="H83">
-        <v>-106.11</v>
-      </c>
-      <c r="I83">
-        <v>0.36</v>
-      </c>
-      <c r="J83">
-        <v>111.11</v>
-      </c>
-      <c r="L83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84">
-        <v>13.56</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>60</v>
-      </c>
-      <c r="H84">
-        <v>-106.11</v>
-      </c>
-      <c r="I84">
-        <v>-0.09</v>
-      </c>
-      <c r="J84">
-        <v>137.57</v>
-      </c>
-      <c r="L84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85">
-        <v>13.57</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>60</v>
-      </c>
-      <c r="H85">
-        <v>-106.11</v>
-      </c>
-      <c r="I85">
-        <v>-0.04</v>
-      </c>
-      <c r="J85">
-        <v>427.09</v>
-      </c>
-      <c r="L85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86">
-        <v>13.59</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>60</v>
-      </c>
-      <c r="H86">
-        <v>-106.11</v>
-      </c>
-      <c r="I86">
-        <v>0.02</v>
-      </c>
-      <c r="J86">
-        <v>899.61</v>
-      </c>
-      <c r="L86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87">
-        <v>13.61</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>60</v>
-      </c>
-      <c r="H87">
-        <v>-106.11</v>
-      </c>
-      <c r="I87">
-        <v>0.02</v>
-      </c>
-      <c r="J87">
-        <v>902.58</v>
-      </c>
-      <c r="L87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>97</v>
-      </c>
-      <c r="C88">
-        <v>13.62</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>60</v>
-      </c>
-      <c r="H88">
-        <v>-106.11</v>
-      </c>
-      <c r="I88">
-        <v>-0.17</v>
-      </c>
-      <c r="J88">
-        <v>821.96</v>
-      </c>
-      <c r="L88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>98</v>
-      </c>
-      <c r="C89">
-        <v>13.64</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>60</v>
-      </c>
-      <c r="H89">
-        <v>-106.11</v>
-      </c>
-      <c r="I89">
-        <v>-0.13</v>
-      </c>
-      <c r="J89">
-        <v>670.12</v>
-      </c>
-      <c r="L89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90">
-        <v>13.63</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>60</v>
-      </c>
-      <c r="H90">
-        <v>-106.11</v>
-      </c>
-      <c r="I90">
-        <v>0.36</v>
-      </c>
-      <c r="J90">
-        <v>440.49</v>
-      </c>
-      <c r="L90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91">
-        <v>13.62</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>60</v>
-      </c>
-      <c r="H91">
-        <v>-106.11</v>
-      </c>
-      <c r="I91">
-        <v>0.13</v>
-      </c>
-      <c r="J91">
-        <v>187.92</v>
-      </c>
-      <c r="L91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92">
-        <v>13.19</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>60</v>
-      </c>
-      <c r="H92">
-        <v>-106.11</v>
-      </c>
-      <c r="I92">
-        <v>0.19</v>
-      </c>
-      <c r="J92">
-        <v>11.1</v>
-      </c>
-      <c r="L92" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <t>Fecha</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>11/17/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:00:00 AM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -626,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -728,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -760,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -792,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -856,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -888,7 +894,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -920,7 +926,7 @@
         <v>20.63</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -952,7 +958,7 @@
         <v>60.64</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -984,7 +990,7 @@
         <v>109.96</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1016,7 +1022,7 @@
         <v>115.63</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1048,7 +1054,7 @@
         <v>427.93</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1080,7 +1086,7 @@
         <v>906.83</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1112,7 +1118,7 @@
         <v>887.95</v>
       </c>
       <c r="L15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1144,7 +1150,7 @@
         <v>803.23</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1176,7 +1182,7 @@
         <v>652.16</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1208,7 +1214,7 @@
         <v>436.77</v>
       </c>
       <c r="L18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1240,7 +1246,7 @@
         <v>181.78</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1272,7 +1278,7 @@
         <v>3.18</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1304,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1336,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1368,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1400,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1432,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1464,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1496,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1528,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1560,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1592,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1624,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1656,7 +1662,7 @@
         <v>0.03</v>
       </c>
       <c r="L32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1688,7 +1694,7 @@
         <v>24.95</v>
       </c>
       <c r="L33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1720,7 +1726,7 @@
         <v>69.48</v>
       </c>
       <c r="L34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1752,7 +1758,7 @@
         <v>164.82</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1784,7 +1790,7 @@
         <v>162.27</v>
       </c>
       <c r="L36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1816,7 +1822,7 @@
         <v>447.74</v>
       </c>
       <c r="L37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1848,7 +1854,7 @@
         <v>866.41</v>
       </c>
       <c r="L38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1880,7 +1886,7 @@
         <v>753.65</v>
       </c>
       <c r="L39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1912,7 +1918,7 @@
         <v>744.91</v>
       </c>
       <c r="L40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1944,7 +1950,7 @@
         <v>641.3099999999999</v>
       </c>
       <c r="L41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1976,7 +1982,7 @@
         <v>415.53</v>
       </c>
       <c r="L42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2008,7 +2014,7 @@
         <v>179.66</v>
       </c>
       <c r="L43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2040,7 +2046,7 @@
         <v>11.28</v>
       </c>
       <c r="L44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2072,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2104,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2136,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2168,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2200,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2232,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2264,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2296,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2328,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2360,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2392,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2424,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2456,7 +2462,7 @@
         <v>13.21</v>
       </c>
       <c r="L57" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2488,7 +2494,7 @@
         <v>30.82</v>
       </c>
       <c r="L58" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2520,7 +2526,7 @@
         <v>56.21</v>
       </c>
       <c r="L59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2552,7 +2558,7 @@
         <v>115.78</v>
       </c>
       <c r="L60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2584,7 +2590,7 @@
         <v>365.57</v>
       </c>
       <c r="L61" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2616,7 +2622,7 @@
         <v>528.48</v>
       </c>
       <c r="L62" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2648,7 +2654,7 @@
         <v>205.97</v>
       </c>
       <c r="L63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2686,7 +2692,7 @@
         <v>3.74</v>
       </c>
       <c r="L64" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2724,7 +2730,7 @@
         <v>4.38</v>
       </c>
       <c r="L65" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2756,7 +2762,7 @@
         <v>265.33</v>
       </c>
       <c r="L66" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2788,7 +2794,7 @@
         <v>43.81</v>
       </c>
       <c r="L67" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2820,7 +2826,7 @@
         <v>0.57</v>
       </c>
       <c r="L68" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2852,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2884,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2916,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2948,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2980,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3012,7 +3018,71 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>84</v>
+      </c>
+      <c r="C75">
+        <v>12.87</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>60</v>
+      </c>
+      <c r="H75">
+        <v>-106.11</v>
+      </c>
+      <c r="I75">
+        <v>-179.03</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76">
+        <v>12.85</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>60</v>
+      </c>
+      <c r="H76">
+        <v>-106.11</v>
+      </c>
+      <c r="I76">
+        <v>0.16</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>Fecha</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>11/17/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:00:00 AM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -632,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -734,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -766,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -798,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -830,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -862,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -894,7 +897,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -926,7 +929,7 @@
         <v>20.63</v>
       </c>
       <c r="L9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -958,7 +961,7 @@
         <v>60.64</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -990,7 +993,7 @@
         <v>109.96</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1022,7 +1025,7 @@
         <v>115.63</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1054,7 +1057,7 @@
         <v>427.93</v>
       </c>
       <c r="L13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1086,7 +1089,7 @@
         <v>906.83</v>
       </c>
       <c r="L14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1118,7 +1121,7 @@
         <v>887.95</v>
       </c>
       <c r="L15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1150,7 +1153,7 @@
         <v>803.23</v>
       </c>
       <c r="L16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1182,7 +1185,7 @@
         <v>652.16</v>
       </c>
       <c r="L17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1214,7 +1217,7 @@
         <v>436.77</v>
       </c>
       <c r="L18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1246,7 +1249,7 @@
         <v>181.78</v>
       </c>
       <c r="L19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1278,7 +1281,7 @@
         <v>3.18</v>
       </c>
       <c r="L20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1310,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1342,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1374,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1406,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1438,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1470,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1502,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1534,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1566,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1598,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1630,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1662,7 +1665,7 @@
         <v>0.03</v>
       </c>
       <c r="L32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1694,7 +1697,7 @@
         <v>24.95</v>
       </c>
       <c r="L33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1726,7 +1729,7 @@
         <v>69.48</v>
       </c>
       <c r="L34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1758,7 +1761,7 @@
         <v>164.82</v>
       </c>
       <c r="L35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1790,7 +1793,7 @@
         <v>162.27</v>
       </c>
       <c r="L36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1822,7 +1825,7 @@
         <v>447.74</v>
       </c>
       <c r="L37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1854,7 +1857,7 @@
         <v>866.41</v>
       </c>
       <c r="L38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1886,7 +1889,7 @@
         <v>753.65</v>
       </c>
       <c r="L39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1918,7 +1921,7 @@
         <v>744.91</v>
       </c>
       <c r="L40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1950,7 +1953,7 @@
         <v>641.3099999999999</v>
       </c>
       <c r="L41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1982,7 +1985,7 @@
         <v>415.53</v>
       </c>
       <c r="L42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2014,7 +2017,7 @@
         <v>179.66</v>
       </c>
       <c r="L43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2046,7 +2049,7 @@
         <v>11.28</v>
       </c>
       <c r="L44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2078,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2110,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2142,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2174,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2206,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2238,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2270,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2302,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2334,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2366,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2398,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2430,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2462,7 +2465,7 @@
         <v>13.21</v>
       </c>
       <c r="L57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2494,7 +2497,7 @@
         <v>30.82</v>
       </c>
       <c r="L58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2526,7 +2529,7 @@
         <v>56.21</v>
       </c>
       <c r="L59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2558,7 +2561,7 @@
         <v>115.78</v>
       </c>
       <c r="L60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2590,7 +2593,7 @@
         <v>365.57</v>
       </c>
       <c r="L61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2622,7 +2625,7 @@
         <v>528.48</v>
       </c>
       <c r="L62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2654,7 +2657,7 @@
         <v>205.97</v>
       </c>
       <c r="L63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2692,7 +2695,7 @@
         <v>3.74</v>
       </c>
       <c r="L64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2730,7 +2733,7 @@
         <v>4.38</v>
       </c>
       <c r="L65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2762,7 +2765,7 @@
         <v>265.33</v>
       </c>
       <c r="L66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2794,7 +2797,7 @@
         <v>43.81</v>
       </c>
       <c r="L67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2826,7 +2829,7 @@
         <v>0.57</v>
       </c>
       <c r="L68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2858,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2890,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2922,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2954,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2986,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3018,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3050,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3082,7 +3085,39 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>86</v>
+      </c>
+      <c r="C77">
+        <v>12.82</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>60</v>
+      </c>
+      <c r="H77">
+        <v>-106.11</v>
+      </c>
+      <c r="I77">
+        <v>0.03</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
   <si>
     <t>Fecha</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>11/17/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:00:00 AM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -635,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -737,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -769,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -865,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -897,7 +903,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -929,7 +935,7 @@
         <v>20.63</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -961,7 +967,7 @@
         <v>60.64</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -993,7 +999,7 @@
         <v>109.96</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1025,7 +1031,7 @@
         <v>115.63</v>
       </c>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1057,7 +1063,7 @@
         <v>427.93</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1089,7 +1095,7 @@
         <v>906.83</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1121,7 +1127,7 @@
         <v>887.95</v>
       </c>
       <c r="L15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1153,7 +1159,7 @@
         <v>803.23</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1185,7 +1191,7 @@
         <v>652.16</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1217,7 +1223,7 @@
         <v>436.77</v>
       </c>
       <c r="L18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1249,7 +1255,7 @@
         <v>181.78</v>
       </c>
       <c r="L19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1281,7 +1287,7 @@
         <v>3.18</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1313,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1345,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1377,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1409,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1441,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1473,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1505,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1537,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1569,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1601,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1633,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1665,7 +1671,7 @@
         <v>0.03</v>
       </c>
       <c r="L32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1697,7 +1703,7 @@
         <v>24.95</v>
       </c>
       <c r="L33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1729,7 +1735,7 @@
         <v>69.48</v>
       </c>
       <c r="L34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1761,7 +1767,7 @@
         <v>164.82</v>
       </c>
       <c r="L35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1793,7 +1799,7 @@
         <v>162.27</v>
       </c>
       <c r="L36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1825,7 +1831,7 @@
         <v>447.74</v>
       </c>
       <c r="L37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1857,7 +1863,7 @@
         <v>866.41</v>
       </c>
       <c r="L38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1889,7 +1895,7 @@
         <v>753.65</v>
       </c>
       <c r="L39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1921,7 +1927,7 @@
         <v>744.91</v>
       </c>
       <c r="L40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1953,7 +1959,7 @@
         <v>641.3099999999999</v>
       </c>
       <c r="L41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1985,7 +1991,7 @@
         <v>415.53</v>
       </c>
       <c r="L42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2017,7 +2023,7 @@
         <v>179.66</v>
       </c>
       <c r="L43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2049,7 +2055,7 @@
         <v>11.28</v>
       </c>
       <c r="L44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2081,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2113,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2145,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2177,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2209,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2241,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2273,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2305,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2337,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2369,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2401,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2433,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2465,7 +2471,7 @@
         <v>13.21</v>
       </c>
       <c r="L57" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2497,7 +2503,7 @@
         <v>30.82</v>
       </c>
       <c r="L58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2529,7 +2535,7 @@
         <v>56.21</v>
       </c>
       <c r="L59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2561,7 +2567,7 @@
         <v>115.78</v>
       </c>
       <c r="L60" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2593,7 +2599,7 @@
         <v>365.57</v>
       </c>
       <c r="L61" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2625,7 +2631,7 @@
         <v>528.48</v>
       </c>
       <c r="L62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2657,7 +2663,7 @@
         <v>205.97</v>
       </c>
       <c r="L63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2695,7 +2701,7 @@
         <v>3.74</v>
       </c>
       <c r="L64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2733,7 +2739,7 @@
         <v>4.38</v>
       </c>
       <c r="L65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2765,7 +2771,7 @@
         <v>265.33</v>
       </c>
       <c r="L66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2797,7 +2803,7 @@
         <v>43.81</v>
       </c>
       <c r="L67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2829,7 +2835,7 @@
         <v>0.57</v>
       </c>
       <c r="L68" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2861,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2893,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2925,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2957,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2989,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3021,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3053,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3085,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3117,7 +3123,71 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>87</v>
+      </c>
+      <c r="C78">
+        <v>12.8</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>60</v>
+      </c>
+      <c r="H78">
+        <v>-106.11</v>
+      </c>
+      <c r="I78">
+        <v>-0.04</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79">
+        <v>12.78</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>60</v>
+      </c>
+      <c r="H79">
+        <v>-106.11</v>
+      </c>
+      <c r="I79">
+        <v>-0.02</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>Fecha</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>11/17/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:00:00 AM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -641,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -743,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -775,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -839,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -871,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -903,7 +909,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -935,7 +941,7 @@
         <v>20.63</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -967,7 +973,7 @@
         <v>60.64</v>
       </c>
       <c r="L10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -999,7 +1005,7 @@
         <v>109.96</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1031,7 +1037,7 @@
         <v>115.63</v>
       </c>
       <c r="L12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1063,7 +1069,7 @@
         <v>427.93</v>
       </c>
       <c r="L13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1095,7 +1101,7 @@
         <v>906.83</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1127,7 +1133,7 @@
         <v>887.95</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1159,7 +1165,7 @@
         <v>803.23</v>
       </c>
       <c r="L16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1191,7 +1197,7 @@
         <v>652.16</v>
       </c>
       <c r="L17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1223,7 +1229,7 @@
         <v>436.77</v>
       </c>
       <c r="L18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1255,7 +1261,7 @@
         <v>181.78</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1287,7 +1293,7 @@
         <v>3.18</v>
       </c>
       <c r="L20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1319,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1351,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1383,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1415,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1447,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1479,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1511,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1543,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1575,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1607,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1639,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1671,7 +1677,7 @@
         <v>0.03</v>
       </c>
       <c r="L32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1703,7 +1709,7 @@
         <v>24.95</v>
       </c>
       <c r="L33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1735,7 +1741,7 @@
         <v>69.48</v>
       </c>
       <c r="L34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1767,7 +1773,7 @@
         <v>164.82</v>
       </c>
       <c r="L35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1799,7 +1805,7 @@
         <v>162.27</v>
       </c>
       <c r="L36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1831,7 +1837,7 @@
         <v>447.74</v>
       </c>
       <c r="L37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1863,7 +1869,7 @@
         <v>866.41</v>
       </c>
       <c r="L38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1895,7 +1901,7 @@
         <v>753.65</v>
       </c>
       <c r="L39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1927,7 +1933,7 @@
         <v>744.91</v>
       </c>
       <c r="L40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1959,7 +1965,7 @@
         <v>641.3099999999999</v>
       </c>
       <c r="L41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1991,7 +1997,7 @@
         <v>415.53</v>
       </c>
       <c r="L42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2023,7 +2029,7 @@
         <v>179.66</v>
       </c>
       <c r="L43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2055,7 +2061,7 @@
         <v>11.28</v>
       </c>
       <c r="L44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2087,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2119,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2151,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2183,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2215,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2247,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2279,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2311,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2343,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2375,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2407,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2439,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2471,7 +2477,7 @@
         <v>13.21</v>
       </c>
       <c r="L57" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2503,7 +2509,7 @@
         <v>30.82</v>
       </c>
       <c r="L58" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2535,7 +2541,7 @@
         <v>56.21</v>
       </c>
       <c r="L59" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2567,7 +2573,7 @@
         <v>115.78</v>
       </c>
       <c r="L60" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2599,7 +2605,7 @@
         <v>365.57</v>
       </c>
       <c r="L61" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2631,7 +2637,7 @@
         <v>528.48</v>
       </c>
       <c r="L62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2663,7 +2669,7 @@
         <v>205.97</v>
       </c>
       <c r="L63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2701,7 +2707,7 @@
         <v>3.74</v>
       </c>
       <c r="L64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2739,7 +2745,7 @@
         <v>4.38</v>
       </c>
       <c r="L65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2771,7 +2777,7 @@
         <v>265.33</v>
       </c>
       <c r="L66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2803,7 +2809,7 @@
         <v>43.81</v>
       </c>
       <c r="L67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2835,7 +2841,7 @@
         <v>0.57</v>
       </c>
       <c r="L68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2867,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2899,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2931,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2963,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2995,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3027,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3059,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3091,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3123,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3155,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3187,7 +3193,71 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>89</v>
+      </c>
+      <c r="C80">
+        <v>12.76</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>60</v>
+      </c>
+      <c r="H80">
+        <v>-106.11</v>
+      </c>
+      <c r="I80">
+        <v>-0.18</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81">
+        <v>12.9</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>60</v>
+      </c>
+      <c r="H81">
+        <v>-106.11</v>
+      </c>
+      <c r="I81">
+        <v>0.03</v>
+      </c>
+      <c r="J81">
+        <v>22.01</v>
+      </c>
+      <c r="L81" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
   <si>
     <t>Fecha</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>11/17/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:00:00 AM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -749,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -781,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -813,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -845,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -877,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -909,7 +912,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -941,7 +944,7 @@
         <v>20.63</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -973,7 +976,7 @@
         <v>60.64</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1005,7 +1008,7 @@
         <v>109.96</v>
       </c>
       <c r="L11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1037,7 +1040,7 @@
         <v>115.63</v>
       </c>
       <c r="L12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1069,7 +1072,7 @@
         <v>427.93</v>
       </c>
       <c r="L13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1101,7 +1104,7 @@
         <v>906.83</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1133,7 +1136,7 @@
         <v>887.95</v>
       </c>
       <c r="L15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1165,7 +1168,7 @@
         <v>803.23</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1197,7 +1200,7 @@
         <v>652.16</v>
       </c>
       <c r="L17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1229,7 +1232,7 @@
         <v>436.77</v>
       </c>
       <c r="L18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1261,7 +1264,7 @@
         <v>181.78</v>
       </c>
       <c r="L19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1293,7 +1296,7 @@
         <v>3.18</v>
       </c>
       <c r="L20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1325,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1357,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1389,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1421,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1453,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1485,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1517,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1549,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1581,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1613,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1645,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1677,7 +1680,7 @@
         <v>0.03</v>
       </c>
       <c r="L32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1709,7 +1712,7 @@
         <v>24.95</v>
       </c>
       <c r="L33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1741,7 +1744,7 @@
         <v>69.48</v>
       </c>
       <c r="L34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1773,7 +1776,7 @@
         <v>164.82</v>
       </c>
       <c r="L35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1805,7 +1808,7 @@
         <v>162.27</v>
       </c>
       <c r="L36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1837,7 +1840,7 @@
         <v>447.74</v>
       </c>
       <c r="L37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1869,7 +1872,7 @@
         <v>866.41</v>
       </c>
       <c r="L38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1901,7 +1904,7 @@
         <v>753.65</v>
       </c>
       <c r="L39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1933,7 +1936,7 @@
         <v>744.91</v>
       </c>
       <c r="L40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1965,7 +1968,7 @@
         <v>641.3099999999999</v>
       </c>
       <c r="L41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1997,7 +2000,7 @@
         <v>415.53</v>
       </c>
       <c r="L42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2029,7 +2032,7 @@
         <v>179.66</v>
       </c>
       <c r="L43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2061,7 +2064,7 @@
         <v>11.28</v>
       </c>
       <c r="L44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2093,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2125,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2157,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2189,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2221,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2253,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2285,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2317,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2349,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2381,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2413,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2445,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2477,7 +2480,7 @@
         <v>13.21</v>
       </c>
       <c r="L57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2509,7 +2512,7 @@
         <v>30.82</v>
       </c>
       <c r="L58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2541,7 +2544,7 @@
         <v>56.21</v>
       </c>
       <c r="L59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2573,7 +2576,7 @@
         <v>115.78</v>
       </c>
       <c r="L60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2605,7 +2608,7 @@
         <v>365.57</v>
       </c>
       <c r="L61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2637,7 +2640,7 @@
         <v>528.48</v>
       </c>
       <c r="L62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2669,7 +2672,7 @@
         <v>205.97</v>
       </c>
       <c r="L63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2707,7 +2710,7 @@
         <v>3.74</v>
       </c>
       <c r="L64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2745,7 +2748,7 @@
         <v>4.38</v>
       </c>
       <c r="L65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2777,7 +2780,7 @@
         <v>265.33</v>
       </c>
       <c r="L66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2809,7 +2812,7 @@
         <v>43.81</v>
       </c>
       <c r="L67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2841,7 +2844,7 @@
         <v>0.57</v>
       </c>
       <c r="L68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2873,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2905,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2937,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2969,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3001,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3033,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3065,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3097,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3129,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3161,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3193,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3225,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3257,7 +3260,39 @@
         <v>22.01</v>
       </c>
       <c r="L81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>91</v>
+      </c>
+      <c r="C82">
+        <v>13.48</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>60</v>
+      </c>
+      <c r="H82">
+        <v>-106.11</v>
+      </c>
+      <c r="I82">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="J82">
+        <v>82.2</v>
+      </c>
+      <c r="L82" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
+++ b/tablas_insivumeh/SAN PEDRO AYAMPUC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
   <si>
     <t>Fecha</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>11/17/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 10:00:00 AM</t>
   </si>
   <si>
     <t>SAN PEDRO AYAMPUC</t>
@@ -650,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -752,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -784,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -816,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -848,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -880,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -912,7 +918,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -944,7 +950,7 @@
         <v>20.63</v>
       </c>
       <c r="L9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -976,7 +982,7 @@
         <v>60.64</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1008,7 +1014,7 @@
         <v>109.96</v>
       </c>
       <c r="L11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1040,7 +1046,7 @@
         <v>115.63</v>
       </c>
       <c r="L12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1072,7 +1078,7 @@
         <v>427.93</v>
       </c>
       <c r="L13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1104,7 +1110,7 @@
         <v>906.83</v>
       </c>
       <c r="L14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1136,7 +1142,7 @@
         <v>887.95</v>
       </c>
       <c r="L15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1168,7 +1174,7 @@
         <v>803.23</v>
       </c>
       <c r="L16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1200,7 +1206,7 @@
         <v>652.16</v>
       </c>
       <c r="L17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1232,7 +1238,7 @@
         <v>436.77</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1264,7 +1270,7 @@
         <v>181.78</v>
       </c>
       <c r="L19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1296,7 +1302,7 @@
         <v>3.18</v>
       </c>
       <c r="L20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1328,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1360,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1392,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1424,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1456,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1488,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1520,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1552,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1584,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1616,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1648,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1680,7 +1686,7 @@
         <v>0.03</v>
       </c>
       <c r="L32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1712,7 +1718,7 @@
         <v>24.95</v>
       </c>
       <c r="L33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1744,7 +1750,7 @@
         <v>69.48</v>
       </c>
       <c r="L34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1776,7 +1782,7 @@
         <v>164.82</v>
       </c>
       <c r="L35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1808,7 +1814,7 @@
         <v>162.27</v>
       </c>
       <c r="L36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1840,7 +1846,7 @@
         <v>447.74</v>
       </c>
       <c r="L37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1872,7 +1878,7 @@
         <v>866.41</v>
       </c>
       <c r="L38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1904,7 +1910,7 @@
         <v>753.65</v>
       </c>
       <c r="L39" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1936,7 +1942,7 @@
         <v>744.91</v>
       </c>
       <c r="L40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1968,7 +1974,7 @@
         <v>641.3099999999999</v>
       </c>
       <c r="L41" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2000,7 +2006,7 @@
         <v>415.53</v>
       </c>
       <c r="L42" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2032,7 +2038,7 @@
         <v>179.66</v>
       </c>
       <c r="L43" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2064,7 +2070,7 @@
         <v>11.28</v>
       </c>
       <c r="L44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2096,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2128,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2160,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2192,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2224,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2256,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2288,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2320,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2352,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2384,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2416,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2448,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2480,7 +2486,7 @@
         <v>13.21</v>
       </c>
       <c r="L57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2512,7 +2518,7 @@
         <v>30.82</v>
       </c>
       <c r="L58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2544,7 +2550,7 @@
         <v>56.21</v>
       </c>
       <c r="L59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2576,7 +2582,7 @@
         <v>115.78</v>
       </c>
       <c r="L60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2608,7 +2614,7 @@
         <v>365.57</v>
       </c>
       <c r="L61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2640,7 +2646,7 @@
         <v>528.48</v>
       </c>
       <c r="L62" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2672,7 +2678,7 @@
         <v>205.97</v>
       </c>
       <c r="L63" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2710,7 +2716,7 @@
         <v>3.74</v>
       </c>
       <c r="L64" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2748,7 +2754,7 @@
         <v>4.38</v>
       </c>
       <c r="L65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2780,7 +2786,7 @@
         <v>265.33</v>
       </c>
       <c r="L66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2812,7 +2818,7 @@
         <v>43.81</v>
       </c>
       <c r="L67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2844,7 +2850,7 @@
         <v>0.57</v>
       </c>
       <c r="L68" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2876,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2908,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2940,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2972,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3004,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3036,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3068,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3100,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3132,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3164,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3196,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3228,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3260,7 +3266,7 @@
         <v>22.01</v>
       </c>
       <c r="L81" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3292,7 +3298,83 @@
         <v>82.2</v>
       </c>
       <c r="L82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>92</v>
+      </c>
+      <c r="C83">
+        <v>13.56</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>60</v>
+      </c>
+      <c r="G83">
+        <v>318.75</v>
+      </c>
+      <c r="H83">
+        <v>-106.11</v>
+      </c>
+      <c r="I83">
+        <v>0.12</v>
+      </c>
+      <c r="J83">
+        <v>132.89</v>
+      </c>
+      <c r="K83">
+        <v>6.79</v>
+      </c>
+      <c r="L83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84">
+        <v>13.58</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>60</v>
+      </c>
+      <c r="G84">
+        <v>308.54</v>
+      </c>
+      <c r="H84">
+        <v>-106.11</v>
+      </c>
+      <c r="I84">
+        <v>0.15</v>
+      </c>
+      <c r="J84">
+        <v>216.76</v>
+      </c>
+      <c r="K84">
+        <v>10.54</v>
+      </c>
+      <c r="L84" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
